--- a/Outputs_Paper02_2.xlsx
+++ b/Outputs_Paper02_2.xlsx
@@ -18334,8 +18334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BUT15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27473,30 +27473,6576 @@
       <c r="A5" s="21" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="20">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.57422104644326899</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.25377199017654101</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.14548464927158</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.108707242194666</v>
+      </c>
+      <c r="G5">
+        <v>8.8282674192893706E-2</v>
+      </c>
+      <c r="H5">
+        <v>7.5568146535341593E-2</v>
+      </c>
+      <c r="I5">
+        <v>6.6842318674773901E-2</v>
+      </c>
+      <c r="J5">
+        <v>6.0433823488746097E-2</v>
+      </c>
+      <c r="K5">
+        <v>5.5493774959635103E-2</v>
+      </c>
+      <c r="L5">
+        <v>5.15463879258155E-2</v>
+      </c>
+      <c r="M5">
+        <v>4.8304007049245999E-2</v>
+      </c>
+      <c r="N5">
+        <v>4.5582121778104702E-2</v>
+      </c>
+      <c r="O5">
+        <v>4.3256663848782698E-2</v>
+      </c>
+      <c r="P5">
+        <v>4.1240941484110998E-2</v>
+      </c>
+      <c r="Q5">
+        <v>3.94724215623177E-2</v>
+      </c>
+      <c r="R5">
+        <v>3.7920612177625899E-2</v>
+      </c>
+      <c r="S5">
+        <v>3.6542923115136697E-2</v>
+      </c>
+      <c r="T5">
+        <v>3.5299555517591598E-2</v>
+      </c>
+      <c r="U5">
+        <v>3.4170046190549197E-2</v>
+      </c>
+      <c r="V5">
+        <v>3.3138026617479999E-2</v>
+      </c>
+      <c r="W5">
+        <v>3.2190230522087297E-2</v>
+      </c>
+      <c r="X5">
+        <v>3.1315779468548403E-2</v>
+      </c>
+      <c r="Y5">
+        <v>3.0510402684160599E-2</v>
+      </c>
+      <c r="Z5">
+        <v>2.9771982409433E-2</v>
+      </c>
+      <c r="AA5">
+        <v>2.9082087959862502E-2</v>
+      </c>
+      <c r="AB5">
+        <v>2.84355975743881E-2</v>
+      </c>
+      <c r="AC5">
+        <v>2.78281149528182E-2</v>
+      </c>
+      <c r="AD5">
+        <v>2.7255842482305299E-2</v>
+      </c>
+      <c r="AE5">
+        <v>2.6715480487957102E-2</v>
+      </c>
+      <c r="AF5">
+        <v>2.62103074432006E-2</v>
+      </c>
+      <c r="AG5">
+        <v>2.5735274641007399E-2</v>
+      </c>
+      <c r="AH5">
+        <v>2.5283538495233002E-2</v>
+      </c>
+      <c r="AI5">
+        <v>2.4853235179936799E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>2.44427034020652E-2</v>
+      </c>
+      <c r="AK5">
+        <v>2.4050456961111501E-2</v>
+      </c>
+      <c r="AL5">
+        <v>2.3675712509182701E-2</v>
+      </c>
+      <c r="AM5">
+        <v>2.33237517694849E-2</v>
+      </c>
+      <c r="AN5">
+        <v>2.2985834692047399E-2</v>
+      </c>
+      <c r="AO5">
+        <v>2.2661038735337299E-2</v>
+      </c>
+      <c r="AP5">
+        <v>2.2348524238836001E-2</v>
+      </c>
+      <c r="AQ5">
+        <v>2.2047525082931899E-2</v>
+      </c>
+      <c r="AR5">
+        <v>2.1757340604118901E-2</v>
+      </c>
+      <c r="AS5">
+        <v>2.1481288714364302E-2</v>
+      </c>
+      <c r="AT5">
+        <v>2.1216485178481698E-2</v>
+      </c>
+      <c r="AU5">
+        <v>2.0960334417769198E-2</v>
+      </c>
+      <c r="AV5">
+        <v>2.0712367445281099E-2</v>
+      </c>
+      <c r="AW5">
+        <v>2.0472150225897101E-2</v>
+      </c>
+      <c r="AX5">
+        <v>2.0239280393613401E-2</v>
+      </c>
+      <c r="AY5">
+        <v>2.0014916422510701E-2</v>
+      </c>
+      <c r="AZ5">
+        <v>1.9800296384764202E-2</v>
+      </c>
+      <c r="BA5">
+        <v>1.9591700010388801E-2</v>
+      </c>
+      <c r="BB5">
+        <v>1.93888455105669E-2</v>
+      </c>
+      <c r="BC5">
+        <v>1.91914692816272E-2</v>
+      </c>
+      <c r="BD5">
+        <v>1.8999324422037899E-2</v>
+      </c>
+      <c r="BE5">
+        <v>1.88122104934405E-2</v>
+      </c>
+      <c r="BF5">
+        <v>1.8633766120683001E-2</v>
+      </c>
+      <c r="BG5">
+        <v>1.8459691266155501E-2</v>
+      </c>
+      <c r="BH5">
+        <v>1.82898069570381E-2</v>
+      </c>
+      <c r="BI5">
+        <v>1.8123944355747299E-2</v>
+      </c>
+      <c r="BJ5">
+        <v>1.7961944033455499E-2</v>
+      </c>
+      <c r="BK5">
+        <v>1.7803655306229699E-2</v>
+      </c>
+      <c r="BL5">
+        <v>1.7651352786102401E-2</v>
+      </c>
+      <c r="BM5">
+        <v>1.7503262749098501E-2</v>
+      </c>
+      <c r="BN5">
+        <v>1.73583275584018E-2</v>
+      </c>
+      <c r="BO5">
+        <v>1.72164344538571E-2</v>
+      </c>
+      <c r="BP5">
+        <v>1.7077476256780699E-2</v>
+      </c>
+      <c r="BQ5">
+        <v>1.6941351019945601E-2</v>
+      </c>
+      <c r="BR5">
+        <v>1.68092895018313E-2</v>
+      </c>
+      <c r="BS5">
+        <v>1.6681331455253901E-2</v>
+      </c>
+      <c r="BT5">
+        <v>1.65558088536139E-2</v>
+      </c>
+      <c r="BU5">
+        <v>1.6432643811110498E-2</v>
+      </c>
+      <c r="BV5">
+        <v>1.6311761892788899E-2</v>
+      </c>
+      <c r="BW5">
+        <v>1.61930919209228E-2</v>
+      </c>
+      <c r="BX5">
+        <v>1.6077097012462498E-2</v>
+      </c>
+      <c r="BY5">
+        <v>1.5965108041009601E-2</v>
+      </c>
+      <c r="BZ5">
+        <v>1.58550383832099E-2</v>
+      </c>
+      <c r="CA5">
+        <v>1.5746832739156901E-2</v>
+      </c>
+      <c r="CB5">
+        <v>1.5640438015244802E-2</v>
+      </c>
+      <c r="CC5">
+        <v>1.5535803212880899E-2</v>
+      </c>
+      <c r="CD5">
+        <v>1.54328793239307E-2</v>
+      </c>
+      <c r="CE5">
+        <v>1.53337430807363E-2</v>
+      </c>
+      <c r="CF5">
+        <v>1.5236210340509501E-2</v>
+      </c>
+      <c r="CG5">
+        <v>1.5140176346403E-2</v>
+      </c>
+      <c r="CH5">
+        <v>1.5045602376914401E-2</v>
+      </c>
+      <c r="CI5">
+        <v>1.49524510944078E-2</v>
+      </c>
+      <c r="CJ5">
+        <v>1.48606864827476E-2</v>
+      </c>
+      <c r="CK5">
+        <v>1.4771719166406599E-2</v>
+      </c>
+      <c r="CL5">
+        <v>1.46845224564972E-2</v>
+      </c>
+      <c r="CM5">
+        <v>1.45985481155958E-2</v>
+      </c>
+      <c r="CN5">
+        <v>1.45137673721155E-2</v>
+      </c>
+      <c r="CO5">
+        <v>1.4430152388826001E-2</v>
+      </c>
+      <c r="CP5">
+        <v>1.4347676224776401E-2</v>
+      </c>
+      <c r="CQ5">
+        <v>1.42672181330989E-2</v>
+      </c>
+      <c r="CR5">
+        <v>1.4188661213791099E-2</v>
+      </c>
+      <c r="CS5">
+        <v>1.41111135412205E-2</v>
+      </c>
+      <c r="CT5">
+        <v>1.40345533968536E-2</v>
+      </c>
+      <c r="CU5">
+        <v>1.39589597044404E-2</v>
+      </c>
+      <c r="CV5">
+        <v>1.38843120063523E-2</v>
+      </c>
+      <c r="CW5">
+        <v>1.38110601385783E-2</v>
+      </c>
+      <c r="CX5">
+        <v>1.3739811937064901E-2</v>
+      </c>
+      <c r="CY5">
+        <v>1.3669405914581901E-2</v>
+      </c>
+      <c r="CZ5">
+        <v>1.3599825455205499E-2</v>
+      </c>
+      <c r="DA5">
+        <v>1.35310543909894E-2</v>
+      </c>
+      <c r="DB5">
+        <v>1.34630769870797E-2</v>
+      </c>
+      <c r="DC5">
+        <v>1.3395992171094599E-2</v>
+      </c>
+      <c r="DD5">
+        <v>1.33309916561552E-2</v>
+      </c>
+      <c r="DE5">
+        <v>1.3266700458904299E-2</v>
+      </c>
+      <c r="DF5">
+        <v>1.3203105721095299E-2</v>
+      </c>
+      <c r="DG5">
+        <v>1.3140194900547301E-2</v>
+      </c>
+      <c r="DH5">
+        <v>1.3077955761717001E-2</v>
+      </c>
+      <c r="DI5">
+        <v>1.30163763665833E-2</v>
+      </c>
+      <c r="DJ5">
+        <v>1.29565873742585E-2</v>
+      </c>
+      <c r="DK5">
+        <v>1.28975793498826E-2</v>
+      </c>
+      <c r="DL5">
+        <v>1.2839163589297599E-2</v>
+      </c>
+      <c r="DM5">
+        <v>1.2781330269855101E-2</v>
+      </c>
+      <c r="DN5">
+        <v>1.2724069787864001E-2</v>
+      </c>
+      <c r="DO5">
+        <v>1.26673727527832E-2</v>
+      </c>
+      <c r="DP5">
+        <v>1.26120289906469E-2</v>
+      </c>
+      <c r="DQ5">
+        <v>1.25576224590706E-2</v>
+      </c>
+      <c r="DR5">
+        <v>1.25037231643054E-2</v>
+      </c>
+      <c r="DS5">
+        <v>1.2450323351184201E-2</v>
+      </c>
+      <c r="DT5">
+        <v>1.23974154217936E-2</v>
+      </c>
+      <c r="DU5">
+        <v>1.23449919317997E-2</v>
+      </c>
+      <c r="DV5">
+        <v>1.2293552821806501E-2</v>
+      </c>
+      <c r="DW5">
+        <v>1.22431830348439E-2</v>
+      </c>
+      <c r="DX5">
+        <v>1.2193250410974001E-2</v>
+      </c>
+      <c r="DY5">
+        <v>1.2143748785714E-2</v>
+      </c>
+      <c r="DZ5">
+        <v>1.20946721078522E-2</v>
+      </c>
+      <c r="EA5">
+        <v>1.2046014437164101E-2</v>
+      </c>
+      <c r="EB5">
+        <v>1.1998027494573E-2</v>
+      </c>
+      <c r="EC5">
+        <v>1.19512220716696E-2</v>
+      </c>
+      <c r="ED5">
+        <v>1.19047955459577E-2</v>
+      </c>
+      <c r="EE5">
+        <v>1.18587429899154E-2</v>
+      </c>
+      <c r="EF5">
+        <v>1.1813059557595399E-2</v>
+      </c>
+      <c r="EG5">
+        <v>1.1767740483252499E-2</v>
+      </c>
+      <c r="EH5">
+        <v>1.17228236648721E-2</v>
+      </c>
+      <c r="EI5">
+        <v>1.1679184050977801E-2</v>
+      </c>
+      <c r="EJ5">
+        <v>1.1635874495491499E-2</v>
+      </c>
+      <c r="EK5">
+        <v>1.15928910419997E-2</v>
+      </c>
+      <c r="EL5">
+        <v>1.15502297926056E-2</v>
+      </c>
+      <c r="EM5">
+        <v>1.1507886907158199E-2</v>
+      </c>
+      <c r="EN5">
+        <v>1.1465858602474399E-2</v>
+      </c>
+      <c r="EO5">
+        <v>1.14249023748954E-2</v>
+      </c>
+      <c r="EP5">
+        <v>1.1384378472440299E-2</v>
+      </c>
+      <c r="EQ5">
+        <v>1.1344140204008001E-2</v>
+      </c>
+      <c r="ER5">
+        <v>1.13041844237312E-2</v>
+      </c>
+      <c r="ES5">
+        <v>1.1264508026980299E-2</v>
+      </c>
+      <c r="ET5">
+        <v>1.12251079499737E-2</v>
+      </c>
+      <c r="EU5">
+        <v>1.1186526458780099E-2</v>
+      </c>
+      <c r="EV5">
+        <v>1.1148504117811899E-2</v>
+      </c>
+      <c r="EW5">
+        <v>1.11107329735123E-2</v>
+      </c>
+      <c r="EX5">
+        <v>1.1073210481078601E-2</v>
+      </c>
+      <c r="EY5">
+        <v>1.10359341247338E-2</v>
+      </c>
+      <c r="EZ5">
+        <v>1.09989014175932E-2</v>
+      </c>
+      <c r="FA5">
+        <v>1.09624648558751E-2</v>
+      </c>
+      <c r="FB5">
+        <v>1.0926698900410601E-2</v>
+      </c>
+      <c r="FC5">
+        <v>1.0891154659553599E-2</v>
+      </c>
+      <c r="FD5">
+        <v>1.08558300721822E-2</v>
+      </c>
+      <c r="FE5">
+        <v>1.0820723097122901E-2</v>
+      </c>
+      <c r="FF5">
+        <v>1.07858317131834E-2</v>
+      </c>
+      <c r="FG5">
+        <v>1.07513404088347E-2</v>
+      </c>
+      <c r="FH5">
+        <v>1.0717617987474099E-2</v>
+      </c>
+      <c r="FI5">
+        <v>1.06840919011565E-2</v>
+      </c>
+      <c r="FJ5">
+        <v>1.06507604803659E-2</v>
+      </c>
+      <c r="FK5">
+        <v>1.0617622068764199E-2</v>
+      </c>
+      <c r="FL5">
+        <v>1.05846750233304E-2</v>
+      </c>
+      <c r="FM5">
+        <v>1.05519545344502E-2</v>
+      </c>
+      <c r="FN5">
+        <v>1.05200898436183E-2</v>
+      </c>
+      <c r="FO5">
+        <v>1.04883995283975E-2</v>
+      </c>
+      <c r="FP5">
+        <v>1.04568822380736E-2</v>
+      </c>
+      <c r="FQ5">
+        <v>1.04255366300512E-2</v>
+      </c>
+      <c r="FR5">
+        <v>1.0394361370058501E-2</v>
+      </c>
+      <c r="FS5">
+        <v>1.03633551323345E-2</v>
+      </c>
+      <c r="FT5">
+        <v>1.03330885450637E-2</v>
+      </c>
+      <c r="FU5">
+        <v>1.0303073853538699E-2</v>
+      </c>
+      <c r="FV5">
+        <v>1.0273213357923101E-2</v>
+      </c>
+      <c r="FW5">
+        <v>1.0243505972650601E-2</v>
+      </c>
+      <c r="FX5">
+        <v>1.0213950616734999E-2</v>
+      </c>
+      <c r="FY5">
+        <v>1.01845462139971E-2</v>
+      </c>
+      <c r="FZ5">
+        <v>1.01557113133529E-2</v>
+      </c>
+      <c r="GA5">
+        <v>1.0127230968282001E-2</v>
+      </c>
+      <c r="GB5">
+        <v>1.00988883657512E-2</v>
+      </c>
+      <c r="GC5">
+        <v>1.00706826316759E-2</v>
+      </c>
+      <c r="GD5">
+        <v>1.0042612893750601E-2</v>
+      </c>
+      <c r="GE5">
+        <v>1.00146782816964E-2</v>
+      </c>
+      <c r="GF5">
+        <v>9.9871601443977092E-3</v>
+      </c>
+      <c r="GG5">
+        <v>9.960088974991E-3</v>
+      </c>
+      <c r="GH5">
+        <v>9.9331411129798004E-3</v>
+      </c>
+      <c r="GI5">
+        <v>9.9063158589559296E-3</v>
+      </c>
+      <c r="GJ5">
+        <v>9.8796125132023394E-3</v>
+      </c>
+      <c r="GK5">
+        <v>9.8530303759480093E-3</v>
+      </c>
+      <c r="GL5">
+        <v>9.8267266790539997E-3</v>
+      </c>
+      <c r="GM5">
+        <v>9.8009533361747506E-3</v>
+      </c>
+      <c r="GN5">
+        <v>9.7752905889161093E-3</v>
+      </c>
+      <c r="GO5">
+        <v>9.7497378826347791E-3</v>
+      </c>
+      <c r="GP5">
+        <v>9.7242946608324492E-3</v>
+      </c>
+      <c r="GQ5">
+        <v>9.6989603654102797E-3</v>
+      </c>
+      <c r="GR5">
+        <v>9.6737796603936308E-3</v>
+      </c>
+      <c r="GS5">
+        <v>9.6492047156215201E-3</v>
+      </c>
+      <c r="GT5">
+        <v>9.6247291333207002E-3</v>
+      </c>
+      <c r="GU5">
+        <v>9.6003524791753898E-3</v>
+      </c>
+      <c r="GV5">
+        <v>9.5760743158821993E-3</v>
+      </c>
+      <c r="GW5">
+        <v>9.55189420339864E-3</v>
+      </c>
+      <c r="GX5">
+        <v>9.5278116991811008E-3</v>
+      </c>
+      <c r="GY5">
+        <v>9.5042888254764403E-3</v>
+      </c>
+      <c r="GZ5">
+        <v>9.4809125837374501E-3</v>
+      </c>
+      <c r="HA5">
+        <v>9.4576254115864393E-3</v>
+      </c>
+      <c r="HB5">
+        <v>9.4344269711687592E-3</v>
+      </c>
+      <c r="HC5">
+        <v>9.4113169210649199E-3</v>
+      </c>
+      <c r="HD5">
+        <v>9.3882949165202591E-3</v>
+      </c>
+      <c r="HE5">
+        <v>9.3657078996080192E-3</v>
+      </c>
+      <c r="HF5">
+        <v>9.3433519932153396E-3</v>
+      </c>
+      <c r="HG5">
+        <v>9.3210763841475707E-3</v>
+      </c>
+      <c r="HH5">
+        <v>9.2988808176961302E-3</v>
+      </c>
+      <c r="HI5">
+        <v>9.2767650350019208E-3</v>
+      </c>
+      <c r="HJ5">
+        <v>9.2547287732746807E-3</v>
+      </c>
+      <c r="HK5">
+        <v>9.2330134941599994E-3</v>
+      </c>
+      <c r="HL5">
+        <v>9.2116066309879101E-3</v>
+      </c>
+      <c r="HM5">
+        <v>9.1902722373976304E-3</v>
+      </c>
+      <c r="HN5">
+        <v>9.1690101283111603E-3</v>
+      </c>
+      <c r="HO5">
+        <v>9.1478201140989292E-3</v>
+      </c>
+      <c r="HP5">
+        <v>9.1267020007875094E-3</v>
+      </c>
+      <c r="HQ5">
+        <v>9.1058003779034297E-3</v>
+      </c>
+      <c r="HR5">
+        <v>9.0852780377096293E-3</v>
+      </c>
+      <c r="HS5">
+        <v>9.0648211636177103E-3</v>
+      </c>
+      <c r="HT5">
+        <v>9.0444296289327701E-3</v>
+      </c>
+      <c r="HU5">
+        <v>9.0241033021489694E-3</v>
+      </c>
+      <c r="HV5">
+        <v>9.00384204714514E-3</v>
+      </c>
+      <c r="HW5">
+        <v>8.9837013226773902E-3</v>
+      </c>
+      <c r="HX5">
+        <v>8.9640049525079191E-3</v>
+      </c>
+      <c r="HY5">
+        <v>8.9443677667749594E-3</v>
+      </c>
+      <c r="HZ5">
+        <v>8.9247896877735107E-3</v>
+      </c>
+      <c r="IA5">
+        <v>8.9052706328369806E-3</v>
+      </c>
+      <c r="IB5">
+        <v>8.8858105145205504E-3</v>
+      </c>
+      <c r="IC5">
+        <v>8.8664092407787897E-3</v>
+      </c>
+      <c r="ID5">
+        <v>8.8474589646948092E-3</v>
+      </c>
+      <c r="IE5">
+        <v>8.8285888250197401E-3</v>
+      </c>
+      <c r="IF5">
+        <v>8.8097721857029795E-3</v>
+      </c>
+      <c r="IG5">
+        <v>8.7910090051301799E-3</v>
+      </c>
+      <c r="IH5">
+        <v>8.7722992368291994E-3</v>
+      </c>
+      <c r="II5">
+        <v>8.7536428296362892E-3</v>
+      </c>
+      <c r="IJ5">
+        <v>8.7353407709134107E-3</v>
+      </c>
+      <c r="IK5">
+        <v>8.7171896406476393E-3</v>
+      </c>
+      <c r="IL5">
+        <v>8.6990869566535792E-3</v>
+      </c>
+      <c r="IM5">
+        <v>8.6810327118186995E-3</v>
+      </c>
+      <c r="IN5">
+        <v>8.6630268941566592E-3</v>
+      </c>
+      <c r="IO5">
+        <v>8.6450694869625103E-3</v>
+      </c>
+      <c r="IP5">
+        <v>8.6273769405662299E-3</v>
+      </c>
+      <c r="IQ5">
+        <v>8.60990088365381E-3</v>
+      </c>
+      <c r="IR5">
+        <v>8.5924687073637204E-3</v>
+      </c>
+      <c r="IS5">
+        <v>8.5750804335599593E-3</v>
+      </c>
+      <c r="IT5">
+        <v>8.5577360792649208E-3</v>
+      </c>
+      <c r="IU5">
+        <v>8.5404356568040494E-3</v>
+      </c>
+      <c r="IV5">
+        <v>8.5233171099253092E-3</v>
+      </c>
+      <c r="IW5">
+        <v>8.5064758518978902E-3</v>
+      </c>
+      <c r="IX5">
+        <v>8.4896743420070295E-3</v>
+      </c>
+      <c r="IY5">
+        <v>8.4729126264210895E-3</v>
+      </c>
+      <c r="IZ5">
+        <v>8.4561907465352405E-3</v>
+      </c>
+      <c r="JA5">
+        <v>8.4395087391060906E-3</v>
+      </c>
+      <c r="JB5">
+        <v>8.4229315393679893E-3</v>
+      </c>
+      <c r="JC5">
+        <v>8.4066880844247491E-3</v>
+      </c>
+      <c r="JD5">
+        <v>8.3904806302860999E-3</v>
+      </c>
+      <c r="JE5">
+        <v>8.3743092434649998E-3</v>
+      </c>
+      <c r="JF5">
+        <v>8.3581739857965208E-3</v>
+      </c>
+      <c r="JG5">
+        <v>8.3420749145629303E-3</v>
+      </c>
+      <c r="JH5">
+        <v>8.3260120826156303E-3</v>
+      </c>
+      <c r="JI5">
+        <v>8.3103292753817903E-3</v>
+      </c>
+      <c r="JJ5">
+        <v>8.29468216807412E-3</v>
+      </c>
+      <c r="JK5">
+        <v>8.2790677410542104E-3</v>
+      </c>
+      <c r="JL5">
+        <v>8.2634860732537195E-3</v>
+      </c>
+      <c r="JM5">
+        <v>8.24793723915738E-3</v>
+      </c>
+      <c r="JN5">
+        <v>8.2324213089163302E-3</v>
+      </c>
+      <c r="JO5">
+        <v>8.2172074447960999E-3</v>
+      </c>
+      <c r="JP5">
+        <v>8.2020895882020401E-3</v>
+      </c>
+      <c r="JQ5">
+        <v>8.1870013287630005E-3</v>
+      </c>
+      <c r="JR5">
+        <v>8.1719427596599996E-3</v>
+      </c>
+      <c r="JS5">
+        <v>8.1569139697472703E-3</v>
+      </c>
+      <c r="JT5">
+        <v>8.1419150436576292E-3</v>
+      </c>
+      <c r="JU5">
+        <v>8.1271453296560704E-3</v>
+      </c>
+      <c r="JV5">
+        <v>8.1125279859247407E-3</v>
+      </c>
+      <c r="JW5">
+        <v>8.0979374284879703E-3</v>
+      </c>
+      <c r="JX5">
+        <v>8.0833737623474504E-3</v>
+      </c>
+      <c r="JY5">
+        <v>8.0688370883080108E-3</v>
+      </c>
+      <c r="JZ5">
+        <v>8.0543275030755604E-3</v>
+      </c>
+      <c r="KA5">
+        <v>8.0399789646157307E-3</v>
+      </c>
+      <c r="KB5">
+        <v>8.0258355292775405E-3</v>
+      </c>
+      <c r="KC5">
+        <v>8.0117163138350503E-3</v>
+      </c>
+      <c r="KD5">
+        <v>7.9976214330361103E-3</v>
+      </c>
+      <c r="KE5">
+        <v>7.9835509975678103E-3</v>
+      </c>
+      <c r="KF5">
+        <v>7.9695051141476306E-3</v>
+      </c>
+      <c r="KG5">
+        <v>7.9555564264665105E-3</v>
+      </c>
+      <c r="KH5">
+        <v>7.9418622292036101E-3</v>
+      </c>
+      <c r="KI5">
+        <v>7.9281899053785902E-3</v>
+      </c>
+      <c r="KJ5">
+        <v>7.9145395777112607E-3</v>
+      </c>
+      <c r="KK5">
+        <v>7.9009113650003408E-3</v>
+      </c>
+      <c r="KL5">
+        <v>7.8873053822081998E-3</v>
+      </c>
+      <c r="KM5">
+        <v>7.8737367205050004E-3</v>
+      </c>
+      <c r="KN5">
+        <v>7.8604688481896598E-3</v>
+      </c>
+      <c r="KO5">
+        <v>7.8472207011214597E-3</v>
+      </c>
+      <c r="KP5">
+        <v>7.8339924084734197E-3</v>
+      </c>
+      <c r="KQ5">
+        <v>7.8207840956385603E-3</v>
+      </c>
+      <c r="KR5">
+        <v>7.8075958843086503E-3</v>
+      </c>
+      <c r="KS5">
+        <v>7.7944278925512799E-3</v>
+      </c>
+      <c r="KT5">
+        <v>7.7815259293464801E-3</v>
+      </c>
+      <c r="KU5">
+        <v>7.76868082458504E-3</v>
+      </c>
+      <c r="KV5">
+        <v>7.7558536102685701E-3</v>
+      </c>
+      <c r="KW5">
+        <v>7.7430444170831E-3</v>
+      </c>
+      <c r="KX5">
+        <v>7.7302533721487297E-3</v>
+      </c>
+      <c r="KY5">
+        <v>7.7174805990913101E-3</v>
+      </c>
+      <c r="KZ5">
+        <v>7.7049129305353002E-3</v>
+      </c>
+      <c r="LA5">
+        <v>7.6924511755407697E-3</v>
+      </c>
+      <c r="LB5">
+        <v>7.6800055079101299E-3</v>
+      </c>
+      <c r="LC5">
+        <v>7.66757606250589E-3</v>
+      </c>
+      <c r="LD5">
+        <v>7.6551629707587703E-3</v>
+      </c>
+      <c r="LE5">
+        <v>7.6427663607345304E-3</v>
+      </c>
+      <c r="LF5">
+        <v>7.6305174503687899E-3</v>
+      </c>
+      <c r="LG5">
+        <v>7.6184206705560099E-3</v>
+      </c>
+      <c r="LH5">
+        <v>7.6063383209007303E-3</v>
+      </c>
+      <c r="LI5">
+        <v>7.59427053948357E-3</v>
+      </c>
+      <c r="LJ5">
+        <v>7.5822174610854698E-3</v>
+      </c>
+      <c r="LK5">
+        <v>7.5701792172498897E-3</v>
+      </c>
+      <c r="LL5">
+        <v>7.5582345347846597E-3</v>
+      </c>
+      <c r="LM5">
+        <v>7.5464855623417204E-3</v>
+      </c>
+      <c r="LN5">
+        <v>7.5347494953232003E-3</v>
+      </c>
+      <c r="LO5">
+        <v>7.5230264742051902E-3</v>
+      </c>
+      <c r="LP5">
+        <v>7.5113166362934403E-3</v>
+      </c>
+      <c r="LQ5">
+        <v>7.4996201157812598E-3</v>
+      </c>
+      <c r="LR5">
+        <v>7.4879660544642096E-3</v>
+      </c>
+      <c r="LS5">
+        <v>7.4765488284183803E-3</v>
+      </c>
+      <c r="LT5">
+        <v>7.4651431035553401E-3</v>
+      </c>
+      <c r="LU5">
+        <v>7.4537490220407902E-3</v>
+      </c>
+      <c r="LV5">
+        <v>7.4423667229960204E-3</v>
+      </c>
+      <c r="LW5">
+        <v>7.4309963425519101E-3</v>
+      </c>
+      <c r="LX5">
+        <v>7.41963801390197E-3</v>
+      </c>
+      <c r="LY5">
+        <v>7.4085196209094399E-3</v>
+      </c>
+      <c r="LZ5">
+        <v>7.39742930381966E-3</v>
+      </c>
+      <c r="MA5">
+        <v>7.3863493366789898E-3</v>
+      </c>
+      <c r="MB5">
+        <v>7.37527985981509E-3</v>
+      </c>
+      <c r="MC5">
+        <v>7.3642210106838399E-3</v>
+      </c>
+      <c r="MD5">
+        <v>7.3531729239187799E-3</v>
+      </c>
+      <c r="ME5">
+        <v>7.3423127703684896E-3</v>
+      </c>
+      <c r="MF5">
+        <v>7.3315238526453002E-3</v>
+      </c>
+      <c r="MG5">
+        <v>7.3207440910780901E-3</v>
+      </c>
+      <c r="MH5">
+        <v>7.3099736266781399E-3</v>
+      </c>
+      <c r="MI5">
+        <v>7.2992125976998204E-3</v>
+      </c>
+      <c r="MJ5">
+        <v>7.28846113968676E-3</v>
+      </c>
+      <c r="MK5">
+        <v>7.2778483374791904E-3</v>
+      </c>
+      <c r="ML5">
+        <v>7.2673476642276099E-3</v>
+      </c>
+      <c r="MM5">
+        <v>7.2568550443589796E-3</v>
+      </c>
+      <c r="MN5">
+        <v>7.2463706191200497E-3</v>
+      </c>
+      <c r="MO5">
+        <v>7.23589452711165E-3</v>
+      </c>
+      <c r="MP5">
+        <v>7.2254269043318196E-3</v>
+      </c>
+      <c r="MQ5">
+        <v>7.2150512072637896E-3</v>
+      </c>
+      <c r="MR5">
+        <v>7.2048264114459096E-3</v>
+      </c>
+      <c r="MS5">
+        <v>7.1946086495222397E-3</v>
+      </c>
+      <c r="MT5">
+        <v>7.1843980625914301E-3</v>
+      </c>
+      <c r="MU5">
+        <v>7.1741947892131896E-3</v>
+      </c>
+      <c r="MV5">
+        <v>7.1639989654486399E-3</v>
+      </c>
+      <c r="MW5">
+        <v>7.15385072111757E-3</v>
+      </c>
+      <c r="MX5">
+        <v>7.1438901639640099E-3</v>
+      </c>
+      <c r="MY5">
+        <v>7.1339356975189099E-3</v>
+      </c>
+      <c r="MZ5">
+        <v>7.1239874624052096E-3</v>
+      </c>
+      <c r="NA5">
+        <v>7.1140455968098397E-3</v>
+      </c>
+      <c r="NB5">
+        <v>7.1041102365214997E-3</v>
+      </c>
+      <c r="NC5">
+        <v>7.0941815149677097E-3</v>
+      </c>
+      <c r="ND5">
+        <v>7.0844730594081199E-3</v>
+      </c>
+      <c r="NE5">
+        <v>7.0747709937595098E-3</v>
+      </c>
+      <c r="NF5">
+        <v>7.0650742854943402E-3</v>
+      </c>
+      <c r="NG5">
+        <v>7.0553830721436098E-3</v>
+      </c>
+      <c r="NH5">
+        <v>7.0456974889365502E-3</v>
+      </c>
+      <c r="NI5">
+        <v>7.0360176688353598E-3</v>
+      </c>
+      <c r="NJ5">
+        <v>7.02651300410793E-3</v>
+      </c>
+      <c r="NK5">
+        <v>7.0170530636247301E-3</v>
+      </c>
+      <c r="NL5">
+        <v>7.0075976706198504E-3</v>
+      </c>
+      <c r="NM5">
+        <v>6.9981469617272996E-3</v>
+      </c>
+      <c r="NN5">
+        <v>6.9887010713719803E-3</v>
+      </c>
+      <c r="NO5">
+        <v>6.9792601318022299E-3</v>
+      </c>
+      <c r="NP5">
+        <v>6.9699514003103901E-3</v>
+      </c>
+      <c r="NQ5">
+        <v>6.9607238839545001E-3</v>
+      </c>
+      <c r="NR5">
+        <v>6.9515001640717503E-3</v>
+      </c>
+      <c r="NS5">
+        <v>6.9422803761947103E-3</v>
+      </c>
+      <c r="NT5">
+        <v>6.9330646537357496E-3</v>
+      </c>
+      <c r="NU5">
+        <v>6.9238531280175304E-3</v>
+      </c>
+      <c r="NV5">
+        <v>6.9147328971425398E-3</v>
+      </c>
+      <c r="NW5">
+        <v>6.9057286378499299E-3</v>
+      </c>
+      <c r="NX5">
+        <v>6.8967274782542999E-3</v>
+      </c>
+      <c r="NY5">
+        <v>6.8877295526141701E-3</v>
+      </c>
+      <c r="NZ5">
+        <v>6.8787349931530902E-3</v>
+      </c>
+      <c r="OA5">
+        <v>6.8697439300882202E-3</v>
+      </c>
+      <c r="OB5">
+        <v>6.8608051629181098E-3</v>
+      </c>
+      <c r="OC5">
+        <v>6.8520154904334199E-3</v>
+      </c>
+      <c r="OD5">
+        <v>6.84322827085042E-3</v>
+      </c>
+      <c r="OE5">
+        <v>6.8344436370087096E-3</v>
+      </c>
+      <c r="OF5">
+        <v>6.8256617197945202E-3</v>
+      </c>
+      <c r="OG5">
+        <v>6.8168826481675602E-3</v>
+      </c>
+      <c r="OH5">
+        <v>6.80811867665928E-3</v>
+      </c>
+      <c r="OI5">
+        <v>6.7995353834822596E-3</v>
+      </c>
+      <c r="OJ5">
+        <v>6.7909539425237498E-3</v>
+      </c>
+      <c r="OK5">
+        <v>6.7823744850836502E-3</v>
+      </c>
+      <c r="OL5">
+        <v>6.7737971405866003E-3</v>
+      </c>
+      <c r="OM5">
+        <v>6.7652220366072203E-3</v>
+      </c>
+      <c r="ON5">
+        <v>6.7566492988949097E-3</v>
+      </c>
+      <c r="OO5">
+        <v>6.7482418470869504E-3</v>
+      </c>
+      <c r="OP5">
+        <v>6.7398584513471398E-3</v>
+      </c>
+      <c r="OQ5">
+        <v>6.7314764793873303E-3</v>
+      </c>
+      <c r="OR5">
+        <v>6.7230960590674103E-3</v>
+      </c>
+      <c r="OS5">
+        <v>6.7147173164705002E-3</v>
+      </c>
+      <c r="OT5">
+        <v>6.7063403759262102E-3</v>
+      </c>
+      <c r="OU5">
+        <v>6.69809082669094E-3</v>
+      </c>
+      <c r="OV5">
+        <v>6.6898981423473601E-3</v>
+      </c>
+      <c r="OW5">
+        <v>6.6817063613271097E-3</v>
+      </c>
+      <c r="OX5">
+        <v>6.6735156098405701E-3</v>
+      </c>
+      <c r="OY5">
+        <v>6.6653260123914499E-3</v>
+      </c>
+      <c r="OZ5">
+        <v>6.6571376917986102E-3</v>
+      </c>
+      <c r="PA5">
+        <v>6.6490405240492599E-3</v>
+      </c>
+      <c r="PB5">
+        <v>6.6410315907322603E-3</v>
+      </c>
+      <c r="PC5">
+        <v>6.6330230766351202E-3</v>
+      </c>
+      <c r="PD5">
+        <v>6.6250151062500597E-3</v>
+      </c>
+      <c r="PE5">
+        <v>6.6170078024295502E-3</v>
+      </c>
+      <c r="PF5">
+        <v>6.6090012864070498E-3</v>
+      </c>
+      <c r="PG5">
+        <v>6.6010512508012601E-3</v>
+      </c>
+      <c r="PH5">
+        <v>6.5932194575209603E-3</v>
+      </c>
+      <c r="PI5">
+        <v>6.5853876330294403E-3</v>
+      </c>
+      <c r="PJ5">
+        <v>6.5775559000459298E-3</v>
+      </c>
+      <c r="PK5">
+        <v>6.56972437971407E-3</v>
+      </c>
+      <c r="PL5">
+        <v>6.5618931916213499E-3</v>
+      </c>
+      <c r="PM5">
+        <v>6.5540852934919697E-3</v>
+      </c>
+      <c r="PN5">
+        <v>6.5464243564341499E-3</v>
+      </c>
+      <c r="PO5">
+        <v>6.53876296894938E-3</v>
+      </c>
+      <c r="PP5">
+        <v>6.5311012519413203E-3</v>
+      </c>
+      <c r="PQ5">
+        <v>6.5234393247993998E-3</v>
+      </c>
+      <c r="PR5">
+        <v>6.5157773054170601E-3</v>
+      </c>
+      <c r="PS5">
+        <v>6.5081153102098501E-3</v>
+      </c>
+      <c r="PT5">
+        <v>6.5006107310208901E-3</v>
+      </c>
+      <c r="PU5">
+        <v>6.4931138323609501E-3</v>
+      </c>
+      <c r="PV5">
+        <v>6.4856162120755399E-3</v>
+      </c>
+      <c r="PW5">
+        <v>6.4781179877651997E-3</v>
+      </c>
+      <c r="PX5">
+        <v>6.4706192755920296E-3</v>
+      </c>
+      <c r="PY5">
+        <v>6.4631201902967802E-3</v>
+      </c>
+      <c r="PZ5">
+        <v>6.4557447411046597E-3</v>
+      </c>
+      <c r="QA5">
+        <v>6.4484066687321697E-3</v>
+      </c>
+      <c r="QB5">
+        <v>6.4410675094998902E-3</v>
+      </c>
+      <c r="QC5">
+        <v>6.4337273791941103E-3</v>
+      </c>
+      <c r="QD5">
+        <v>6.4263863922177601E-3</v>
+      </c>
+      <c r="QE5">
+        <v>6.4190446616065201E-3</v>
+      </c>
+      <c r="QF5">
+        <v>6.4117941577245697E-3</v>
+      </c>
+      <c r="QG5">
+        <v>6.4046095173692502E-3</v>
+      </c>
+      <c r="QH5">
+        <v>6.3974234498920604E-3</v>
+      </c>
+      <c r="QI5">
+        <v>6.3902360692478103E-3</v>
+      </c>
+      <c r="QJ5">
+        <v>6.3830474880606503E-3</v>
+      </c>
+      <c r="QK5">
+        <v>6.3758578176391998E-3</v>
+      </c>
+      <c r="QL5">
+        <v>6.3687282658309004E-3</v>
+      </c>
+      <c r="QM5">
+        <v>6.3616919153862599E-3</v>
+      </c>
+      <c r="QN5">
+        <v>6.3546538207849002E-3</v>
+      </c>
+      <c r="QO5">
+        <v>6.3476140941399499E-3</v>
+      </c>
+      <c r="QP5">
+        <v>6.34057284628431E-3</v>
+      </c>
+      <c r="QQ5">
+        <v>6.3335301867848796E-3</v>
+      </c>
+      <c r="QR5">
+        <v>6.3265177740674302E-3</v>
+      </c>
+      <c r="QS5">
+        <v>6.3196248086527396E-3</v>
+      </c>
+      <c r="QT5">
+        <v>6.3127298036657004E-3</v>
+      </c>
+      <c r="QU5">
+        <v>6.30583286937377E-3</v>
+      </c>
+      <c r="QV5">
+        <v>6.2989341148123202E-3</v>
+      </c>
+      <c r="QW5">
+        <v>6.2920336477981301E-3</v>
+      </c>
+      <c r="QX5">
+        <v>6.2851347310386796E-3</v>
+      </c>
+      <c r="QY5">
+        <v>6.2783804691277601E-3</v>
+      </c>
+      <c r="QZ5">
+        <v>6.2716238923650998E-3</v>
+      </c>
+      <c r="RA5">
+        <v>6.2648651091736802E-3</v>
+      </c>
+      <c r="RB5">
+        <v>6.2581042267905E-3</v>
+      </c>
+      <c r="RC5">
+        <v>6.2513413512793603E-3</v>
+      </c>
+      <c r="RD5">
+        <v>6.2445765875434201E-3</v>
+      </c>
+      <c r="RE5">
+        <v>6.2379324180463396E-3</v>
+      </c>
+      <c r="RF5">
+        <v>6.2313098172104703E-3</v>
+      </c>
+      <c r="RG5">
+        <v>6.2246847515949003E-3</v>
+      </c>
+      <c r="RH5">
+        <v>6.2180573266421204E-3</v>
+      </c>
+      <c r="RI5">
+        <v>6.2114276466647697E-3</v>
+      </c>
+      <c r="RJ5">
+        <v>6.2047958148576101E-3</v>
+      </c>
+      <c r="RK5">
+        <v>6.1982553544745996E-3</v>
+      </c>
+      <c r="RL5">
+        <v>6.1917624744688704E-3</v>
+      </c>
+      <c r="RM5">
+        <v>6.1852668888443601E-3</v>
+      </c>
+      <c r="RN5">
+        <v>6.1787687012568896E-3</v>
+      </c>
+      <c r="RO5">
+        <v>6.1722680142739898E-3</v>
+      </c>
+      <c r="RP5">
+        <v>6.1657649293861702E-3</v>
+      </c>
+      <c r="RQ5">
+        <v>6.1593250887959101E-3</v>
+      </c>
+      <c r="RR5">
+        <v>6.1529578606489398E-3</v>
+      </c>
+      <c r="RS5">
+        <v>6.1465877023895001E-3</v>
+      </c>
+      <c r="RT5">
+        <v>6.1402147158980602E-3</v>
+      </c>
+      <c r="RU5">
+        <v>6.1338390020066001E-3</v>
+      </c>
+      <c r="RV5">
+        <v>6.1274606605092397E-3</v>
+      </c>
+      <c r="RW5">
+        <v>6.1211184807308198E-3</v>
+      </c>
+      <c r="RX5">
+        <v>6.1148730112712997E-3</v>
+      </c>
+      <c r="RY5">
+        <v>6.1086244024711103E-3</v>
+      </c>
+      <c r="RZ5">
+        <v>6.1023727544497397E-3</v>
+      </c>
+      <c r="SA5">
+        <v>6.0961181663162101E-3</v>
+      </c>
+      <c r="SB5">
+        <v>6.0898607361792104E-3</v>
+      </c>
+      <c r="SC5">
+        <v>6.0836133815299299E-3</v>
+      </c>
+      <c r="SD5">
+        <v>6.0774859437525497E-3</v>
+      </c>
+      <c r="SE5">
+        <v>6.07135517167132E-3</v>
+      </c>
+      <c r="SF5">
+        <v>6.0652211636615704E-3</v>
+      </c>
+      <c r="SG5">
+        <v>6.05908401712465E-3</v>
+      </c>
+      <c r="SH5">
+        <v>6.0529438284974701E-3</v>
+      </c>
+      <c r="SI5">
+        <v>6.0468006932619597E-3</v>
+      </c>
+      <c r="SJ5">
+        <v>6.0407756040803803E-3</v>
+      </c>
+      <c r="SK5">
+        <v>6.03475911221914E-3</v>
+      </c>
+      <c r="SL5">
+        <v>6.0287392010783701E-3</v>
+      </c>
+      <c r="SM5">
+        <v>6.02271596636921E-3</v>
+      </c>
+      <c r="SN5">
+        <v>6.0166895028728002E-3</v>
+      </c>
+      <c r="SO5">
+        <v>6.0106599044491699E-3</v>
+      </c>
+      <c r="SP5">
+        <v>6.0047218169857301E-3</v>
+      </c>
+      <c r="SQ5">
+        <v>5.9988161967447296E-3</v>
+      </c>
+      <c r="SR5">
+        <v>5.9929069863704299E-3</v>
+      </c>
+      <c r="SS5">
+        <v>5.9869942799032003E-3</v>
+      </c>
+      <c r="ST5">
+        <v>5.9810781704863003E-3</v>
+      </c>
+      <c r="SU5">
+        <v>5.9751587503744201E-3</v>
+      </c>
+      <c r="SV5">
+        <v>5.9693052393444404E-3</v>
+      </c>
+      <c r="SW5">
+        <v>5.9635072222186296E-3</v>
+      </c>
+      <c r="SX5">
+        <v>5.9577054558051096E-3</v>
+      </c>
+      <c r="SY5">
+        <v>5.9519000324944199E-3</v>
+      </c>
+      <c r="SZ5">
+        <v>5.9460910438115799E-3</v>
+      </c>
+      <c r="TA5">
+        <v>5.9402785804242098E-3</v>
+      </c>
+      <c r="TB5">
+        <v>5.9345073165636298E-3</v>
+      </c>
+      <c r="TC5">
+        <v>5.9288137668354101E-3</v>
+      </c>
+      <c r="TD5">
+        <v>5.9231163196227302E-3</v>
+      </c>
+      <c r="TE5">
+        <v>5.9174150656886E-3</v>
+      </c>
+      <c r="TF5">
+        <v>5.9117100949608297E-3</v>
+      </c>
+      <c r="TG5">
+        <v>5.9060014965396698E-3</v>
+      </c>
+      <c r="TH5">
+        <v>5.9003102417297297E-3</v>
+      </c>
+      <c r="TI5">
+        <v>5.8947181496218897E-3</v>
+      </c>
+      <c r="TJ5">
+        <v>5.8891220221005802E-3</v>
+      </c>
+      <c r="TK5">
+        <v>5.88352194832474E-3</v>
+      </c>
+      <c r="TL5">
+        <v>5.8779180166471197E-3</v>
+      </c>
+      <c r="TM5">
+        <v>5.8723103146215297E-3</v>
+      </c>
+      <c r="TN5">
+        <v>5.8666989290100799E-3</v>
+      </c>
+      <c r="TO5">
+        <v>5.86120339256869E-3</v>
+      </c>
+      <c r="TP5">
+        <v>5.8557057041068103E-3</v>
+      </c>
+      <c r="TQ5">
+        <v>5.8502039395072298E-3</v>
+      </c>
+      <c r="TR5">
+        <v>5.8446981855707703E-3</v>
+      </c>
+      <c r="TS5">
+        <v>5.8391885283267499E-3</v>
+      </c>
+      <c r="TT5">
+        <v>5.8336750530399101E-3</v>
+      </c>
+      <c r="TU5">
+        <v>5.8282531851010103E-3</v>
+      </c>
+      <c r="TV5">
+        <v>5.8228511679628099E-3</v>
+      </c>
+      <c r="TW5">
+        <v>5.8174449538562403E-3</v>
+      </c>
+      <c r="TX5">
+        <v>5.8120346280540799E-3</v>
+      </c>
+      <c r="TY5">
+        <v>5.8066202750839402E-3</v>
+      </c>
+      <c r="TZ5">
+        <v>5.8012019787348403E-3</v>
+      </c>
+      <c r="UA5">
+        <v>5.7958518507197302E-3</v>
+      </c>
+      <c r="UB5">
+        <v>5.7905428444478303E-3</v>
+      </c>
+      <c r="UC5">
+        <v>5.7852295288724799E-3</v>
+      </c>
+      <c r="UD5">
+        <v>5.7799119877628997E-3</v>
+      </c>
+      <c r="UE5">
+        <v>5.7745903041684201E-3</v>
+      </c>
+      <c r="UF5">
+        <v>5.7692645604247497E-3</v>
+      </c>
+      <c r="UG5">
+        <v>5.7639843156578399E-3</v>
+      </c>
+      <c r="UH5">
+        <v>5.7587657617931502E-3</v>
+      </c>
+      <c r="UI5">
+        <v>5.7535427942660101E-3</v>
+      </c>
+      <c r="UJ5">
+        <v>5.7483154953670203E-3</v>
+      </c>
+      <c r="UK5">
+        <v>5.7430839466912102E-3</v>
+      </c>
+      <c r="UL5">
+        <v>5.7378482291438803E-3</v>
+      </c>
+      <c r="UM5">
+        <v>5.7326360794099102E-3</v>
+      </c>
+      <c r="UN5">
+        <v>5.7275055165255297E-3</v>
+      </c>
+      <c r="UO5">
+        <v>5.7223704431108502E-3</v>
+      </c>
+      <c r="UP5">
+        <v>5.7172309400031797E-3</v>
+      </c>
+      <c r="UQ5">
+        <v>5.71208708736757E-3</v>
+      </c>
+      <c r="UR5">
+        <v>5.7069389647022902E-3</v>
+      </c>
+      <c r="US5">
+        <v>5.7017931870037902E-3</v>
+      </c>
+      <c r="UT5">
+        <v>5.6967482460310399E-3</v>
+      </c>
+      <c r="UU5">
+        <v>5.6916987046984301E-3</v>
+      </c>
+      <c r="UV5">
+        <v>5.6866446424155299E-3</v>
+      </c>
+      <c r="UW5">
+        <v>5.6815861379419701E-3</v>
+      </c>
+      <c r="UX5">
+        <v>5.67652326939276E-3</v>
+      </c>
+      <c r="UY5">
+        <v>5.6714561142435001E-3</v>
+      </c>
+      <c r="UZ5">
+        <v>5.6664806027205998E-3</v>
+      </c>
+      <c r="VA5">
+        <v>5.6615143189727999E-3</v>
+      </c>
+      <c r="VB5">
+        <v>5.6565434296581597E-3</v>
+      </c>
+      <c r="VC5">
+        <v>5.6515680121557096E-3</v>
+      </c>
+      <c r="VD5">
+        <v>5.6465881432210298E-3</v>
+      </c>
+      <c r="VE5">
+        <v>5.64160389899132E-3</v>
+      </c>
+      <c r="VF5">
+        <v>5.6366897296878096E-3</v>
+      </c>
+      <c r="VG5">
+        <v>5.6318045124398699E-3</v>
+      </c>
+      <c r="VH5">
+        <v>5.6269146112536399E-3</v>
+      </c>
+      <c r="VI5">
+        <v>5.6220201021524004E-3</v>
+      </c>
+      <c r="VJ5">
+        <v>5.6171210605563899E-3</v>
+      </c>
+      <c r="VK5">
+        <v>5.6122175612875903E-3</v>
+      </c>
+      <c r="VL5">
+        <v>5.6073632377582902E-3</v>
+      </c>
+      <c r="VM5">
+        <v>5.60255697545125E-3</v>
+      </c>
+      <c r="VN5">
+        <v>5.5977459567093197E-3</v>
+      </c>
+      <c r="VO5">
+        <v>5.5929302562249504E-3</v>
+      </c>
+      <c r="VP5">
+        <v>5.5881099481070997E-3</v>
+      </c>
+      <c r="VQ5">
+        <v>5.5832851058858603E-3</v>
+      </c>
+      <c r="VR5">
+        <v>5.5784891838375596E-3</v>
+      </c>
+      <c r="VS5">
+        <v>5.5737598407709903E-3</v>
+      </c>
+      <c r="VT5">
+        <v>5.5690256743011696E-3</v>
+      </c>
+      <c r="VU5">
+        <v>5.5642867578145402E-3</v>
+      </c>
+      <c r="VV5">
+        <v>5.5595431641329096E-3</v>
+      </c>
+      <c r="VW5">
+        <v>5.5547949655177899E-3</v>
+      </c>
+      <c r="VX5">
+        <v>5.5500560504714198E-3</v>
+      </c>
+      <c r="VY5">
+        <v>5.5454016633404296E-3</v>
+      </c>
+      <c r="VZ5">
+        <v>5.5407423910414002E-3</v>
+      </c>
+      <c r="WA5">
+        <v>5.5360783056794902E-3</v>
+      </c>
+      <c r="WB5">
+        <v>5.5314094788133398E-3</v>
+      </c>
+      <c r="WC5">
+        <v>5.5267359814591896E-3</v>
+      </c>
+      <c r="WD5">
+        <v>5.5220578840949998E-3</v>
+      </c>
+      <c r="WE5">
+        <v>5.5174714011628698E-3</v>
+      </c>
+      <c r="WF5">
+        <v>5.5128851337527297E-3</v>
+      </c>
+      <c r="WG5">
+        <v>5.5082939951574704E-3</v>
+      </c>
+      <c r="WH5">
+        <v>5.50369805569646E-3</v>
+      </c>
+      <c r="WI5">
+        <v>5.4990973851638701E-3</v>
+      </c>
+      <c r="WJ5">
+        <v>5.49449205283259E-3</v>
+      </c>
+      <c r="WK5">
+        <v>5.4899583972354404E-3</v>
+      </c>
+      <c r="WL5">
+        <v>5.4854433111776501E-3</v>
+      </c>
+      <c r="WM5">
+        <v>5.48092330045082E-3</v>
+      </c>
+      <c r="WN5">
+        <v>5.4763984341587302E-3</v>
+      </c>
+      <c r="WO5">
+        <v>5.4718687808965596E-3</v>
+      </c>
+      <c r="WP5">
+        <v>5.4673344087545596E-3</v>
+      </c>
+      <c r="WQ5">
+        <v>5.4628523624611703E-3</v>
+      </c>
+      <c r="WR5">
+        <v>5.4584066970565503E-3</v>
+      </c>
+      <c r="WS5">
+        <v>5.4539560578693398E-3</v>
+      </c>
+      <c r="WT5">
+        <v>5.4495005128112903E-3</v>
+      </c>
+      <c r="WU5">
+        <v>5.4450401293014202E-3</v>
+      </c>
+      <c r="WV5">
+        <v>5.4405749742696503E-3</v>
+      </c>
+      <c r="WW5">
+        <v>5.4361433594789102E-3</v>
+      </c>
+      <c r="WX5">
+        <v>5.4317654141131898E-3</v>
+      </c>
+      <c r="WY5">
+        <v>5.4273824499702196E-3</v>
+      </c>
+      <c r="WZ5">
+        <v>5.4229945337929703E-3</v>
+      </c>
+      <c r="XA5">
+        <v>5.418601731847E-3</v>
+      </c>
+      <c r="XB5">
+        <v>5.4142041099239499E-3</v>
+      </c>
+      <c r="XC5">
+        <v>5.4098217873535699E-3</v>
+      </c>
+      <c r="XD5">
+        <v>5.4055099188907597E-3</v>
+      </c>
+      <c r="XE5">
+        <v>5.40119299053873E-3</v>
+      </c>
+      <c r="XF5">
+        <v>5.3968710678946397E-3</v>
+      </c>
+      <c r="XG5">
+        <v>5.3925442160930601E-3</v>
+      </c>
+      <c r="XH5">
+        <v>5.3882124998092E-3</v>
+      </c>
+      <c r="XI5">
+        <v>5.3838783670728399E-3</v>
+      </c>
+      <c r="XJ5">
+        <v>5.3796309873854198E-3</v>
+      </c>
+      <c r="XK5">
+        <v>5.3753785103575497E-3</v>
+      </c>
+      <c r="XL5">
+        <v>5.3711210004633103E-3</v>
+      </c>
+      <c r="XM5">
+        <v>5.36685852172839E-3</v>
+      </c>
+      <c r="XN5">
+        <v>5.3625911377332101E-3</v>
+      </c>
+      <c r="XO5">
+        <v>5.3583189116159701E-3</v>
+      </c>
+      <c r="XP5">
+        <v>5.3541197014284501E-3</v>
+      </c>
+      <c r="XQ5">
+        <v>5.3499301437163497E-3</v>
+      </c>
+      <c r="XR5">
+        <v>5.3457355180380802E-3</v>
+      </c>
+      <c r="XS5">
+        <v>5.3415358873323297E-3</v>
+      </c>
+      <c r="XT5">
+        <v>5.3373313141060804E-3</v>
+      </c>
+      <c r="XU5">
+        <v>5.3331218604374996E-3</v>
+      </c>
+      <c r="XV5">
+        <v>5.3289674357711297E-3</v>
+      </c>
+      <c r="XW5">
+        <v>5.3248393156163903E-3</v>
+      </c>
+      <c r="XX5">
+        <v>5.3207060956736501E-3</v>
+      </c>
+      <c r="XY5">
+        <v>5.31656783781619E-3</v>
+      </c>
+      <c r="XZ5">
+        <v>5.3124246034985997E-3</v>
+      </c>
+      <c r="YA5">
+        <v>5.3082764537596104E-3</v>
+      </c>
+      <c r="YB5">
+        <v>5.30416584583008E-3</v>
+      </c>
+      <c r="YC5">
+        <v>5.3000977296283197E-3</v>
+      </c>
+      <c r="YD5">
+        <v>5.2960244849097901E-3</v>
+      </c>
+      <c r="YE5">
+        <v>5.2919461725035796E-3</v>
+      </c>
+      <c r="YF5">
+        <v>5.2878628528326699E-3</v>
+      </c>
+      <c r="YG5">
+        <v>5.28377458591667E-3</v>
+      </c>
+      <c r="YH5">
+        <v>5.2797068560534099E-3</v>
+      </c>
+      <c r="YI5">
+        <v>5.2756973563641198E-3</v>
+      </c>
+      <c r="YJ5">
+        <v>5.27168270234826E-3</v>
+      </c>
+      <c r="YK5">
+        <v>5.2676629538116497E-3</v>
+      </c>
+      <c r="YL5">
+        <v>5.2636381701661201E-3</v>
+      </c>
+      <c r="YM5">
+        <v>5.2596084104321204E-3</v>
+      </c>
+      <c r="YN5">
+        <v>5.2555826488708598E-3</v>
+      </c>
+      <c r="YO5">
+        <v>5.2516304225268002E-3</v>
+      </c>
+      <c r="YP5">
+        <v>5.2476730188014001E-3</v>
+      </c>
+      <c r="YQ5">
+        <v>5.24371049649776E-3</v>
+      </c>
+      <c r="YR5">
+        <v>5.2397429140367104E-3</v>
+      </c>
+      <c r="YS5">
+        <v>5.2357703294592401E-3</v>
+      </c>
+      <c r="YT5">
+        <v>5.2317928004289903E-3</v>
+      </c>
+      <c r="YU5">
+        <v>5.2278894005038804E-3</v>
+      </c>
+      <c r="YV5">
+        <v>5.2239879489786303E-3</v>
+      </c>
+      <c r="YW5">
+        <v>5.22008135743847E-3</v>
+      </c>
+      <c r="YX5">
+        <v>5.2161696833329801E-3</v>
+      </c>
+      <c r="YY5">
+        <v>5.2122529837430997E-3</v>
+      </c>
+      <c r="YZ5">
+        <v>5.2083313153834703E-3</v>
+      </c>
+      <c r="ZA5">
+        <v>5.2044669984731796E-3</v>
+      </c>
+      <c r="ZB5">
+        <v>5.2006202416799499E-3</v>
+      </c>
+      <c r="ZC5">
+        <v>5.19676832591001E-3</v>
+      </c>
+      <c r="ZD5">
+        <v>5.1929113076611497E-3</v>
+      </c>
+      <c r="ZE5">
+        <v>5.1890492430733204E-3</v>
+      </c>
+      <c r="ZF5">
+        <v>5.1851821879308202E-3</v>
+      </c>
+      <c r="ZG5">
+        <v>5.1813561509912297E-3</v>
+      </c>
+      <c r="ZH5">
+        <v>5.17756287046692E-3</v>
+      </c>
+      <c r="ZI5">
+        <v>5.1737644143413702E-3</v>
+      </c>
+      <c r="ZJ5">
+        <v>5.1699608381797204E-3</v>
+      </c>
+      <c r="ZK5">
+        <v>5.1661521971996501E-3</v>
+      </c>
+      <c r="ZL5">
+        <v>5.1623385462734603E-3</v>
+      </c>
+      <c r="ZM5">
+        <v>5.1585500100367497E-3</v>
+      </c>
+      <c r="ZN5">
+        <v>5.1548090247841103E-3</v>
+      </c>
+      <c r="ZO5">
+        <v>5.1510628495132198E-3</v>
+      </c>
+      <c r="ZP5">
+        <v>5.1473115388752898E-3</v>
+      </c>
+      <c r="ZQ5">
+        <v>5.1435551471841097E-3</v>
+      </c>
+      <c r="ZR5">
+        <v>5.1397937284180604E-3</v>
+      </c>
+      <c r="ZS5">
+        <v>5.1360419364835297E-3</v>
+      </c>
+      <c r="ZT5">
+        <v>5.1323521015055303E-3</v>
+      </c>
+      <c r="ZU5">
+        <v>5.1286570641772599E-3</v>
+      </c>
+      <c r="ZV5">
+        <v>5.12495687825445E-3</v>
+      </c>
+      <c r="ZW5">
+        <v>5.1212515971650399E-3</v>
+      </c>
+      <c r="ZX5">
+        <v>5.1175412740111998E-3</v>
+      </c>
+      <c r="ZY5">
+        <v>5.1138259615712504E-3</v>
+      </c>
+      <c r="ZZ5">
+        <v>5.1101856968819902E-3</v>
+      </c>
+      <c r="AAA5">
+        <v>5.1065406890726701E-3</v>
+      </c>
+      <c r="AAB5">
+        <v>5.1028905214287601E-3</v>
+      </c>
+      <c r="AAC5">
+        <v>5.0992352465100898E-3</v>
+      </c>
+      <c r="AAD5">
+        <v>5.0955749165599801E-3</v>
+      </c>
+      <c r="AAE5">
+        <v>5.0919095835071102E-3</v>
+      </c>
+      <c r="AAF5">
+        <v>5.0883035988674302E-3</v>
+      </c>
+      <c r="AAG5">
+        <v>5.0847075453175202E-3</v>
+      </c>
+      <c r="AAH5">
+        <v>5.0811063225708903E-3</v>
+      </c>
+      <c r="AAI5">
+        <v>5.07749998233666E-3</v>
+      </c>
+      <c r="AAJ5">
+        <v>5.0738885760163704E-3</v>
+      </c>
+      <c r="AAK5">
+        <v>5.0702721547057697E-3</v>
+      </c>
+      <c r="AAL5">
+        <v>5.0666997798030702E-3</v>
+      </c>
+      <c r="AAM5">
+        <v>5.0631516371544699E-3</v>
+      </c>
+      <c r="AAN5">
+        <v>5.0595983177215099E-3</v>
+      </c>
+      <c r="AAO5">
+        <v>5.0560398723796104E-3</v>
+      </c>
+      <c r="AAP5">
+        <v>5.0524763517052701E-3</v>
+      </c>
+      <c r="AAQ5">
+        <v>5.0489078059777603E-3</v>
+      </c>
+      <c r="AAR5">
+        <v>5.0453683894399401E-3</v>
+      </c>
+      <c r="AAS5">
+        <v>5.0418671450315504E-3</v>
+      </c>
+      <c r="AAT5">
+        <v>5.0383607179278599E-3</v>
+      </c>
+      <c r="AAU5">
+        <v>5.0348491581873002E-3</v>
+      </c>
+      <c r="AAV5">
+        <v>5.0313325155777197E-3</v>
+      </c>
+      <c r="AAW5">
+        <v>5.0278108395780501E-3</v>
+      </c>
+      <c r="AAX5">
+        <v>5.02430374828137E-3</v>
+      </c>
+      <c r="AAY5">
+        <v>5.0208484189997599E-3</v>
+      </c>
+      <c r="AAZ5">
+        <v>5.0173879026961599E-3</v>
+      </c>
+      <c r="ABA5">
+        <v>5.0139222486283797E-3</v>
+      </c>
+      <c r="ABB5">
+        <v>5.0104515057717101E-3</v>
+      </c>
+      <c r="ABC5">
+        <v>5.0069757228205398E-3</v>
+      </c>
+      <c r="ABD5">
+        <v>5.0035003412284198E-3</v>
+      </c>
+      <c r="ABE5">
+        <v>5.0000899724105098E-3</v>
+      </c>
+      <c r="ABF5">
+        <v>4.9966744137407999E-3</v>
+      </c>
+      <c r="ABG5">
+        <v>4.9932537136924797E-3</v>
+      </c>
+      <c r="ABH5">
+        <v>4.9898279204640796E-3</v>
+      </c>
+      <c r="ABI5">
+        <v>4.9863970819809004E-3</v>
+      </c>
+      <c r="ABJ5">
+        <v>4.9829612458965897E-3</v>
+      </c>
+      <c r="ABK5">
+        <v>4.9795864758970599E-3</v>
+      </c>
+      <c r="ABL5">
+        <v>4.9762149490148204E-3</v>
+      </c>
+      <c r="ABM5">
+        <v>4.9728382785694698E-3</v>
+      </c>
+      <c r="ABN5">
+        <v>4.9694565119981502E-3</v>
+      </c>
+      <c r="ABO5">
+        <v>4.9660696964723104E-3</v>
+      </c>
+      <c r="ABP5">
+        <v>4.9626778788991301E-3</v>
+      </c>
+      <c r="ABQ5">
+        <v>4.9593327516247402E-3</v>
+      </c>
+      <c r="ABR5">
+        <v>4.9560043570066803E-3</v>
+      </c>
+      <c r="ABS5">
+        <v>4.9526708179923502E-3</v>
+      </c>
+      <c r="ABT5">
+        <v>4.94933218127264E-3</v>
+      </c>
+      <c r="ABU5">
+        <v>4.9459884932800098E-3</v>
+      </c>
+      <c r="ABV5">
+        <v>4.9426398001898098E-3</v>
+      </c>
+      <c r="ABW5">
+        <v>4.9393237677960904E-3</v>
+      </c>
+      <c r="ABX5">
+        <v>4.9360376312893696E-3</v>
+      </c>
+      <c r="ABY5">
+        <v>4.9327463508302104E-3</v>
+      </c>
+      <c r="ABZ5">
+        <v>4.9294499723780997E-3</v>
+      </c>
+      <c r="ACA5">
+        <v>4.9261485416410402E-3</v>
+      </c>
+      <c r="ACB5">
+        <v>4.9228421040769001E-3</v>
+      </c>
+      <c r="ACC5">
+        <v>4.9195546333975501E-3</v>
+      </c>
+      <c r="ACD5">
+        <v>4.9163099053088901E-3</v>
+      </c>
+      <c r="ACE5">
+        <v>4.9130600349182501E-3</v>
+      </c>
+      <c r="ACF5">
+        <v>4.9098050674681896E-3</v>
+      </c>
+      <c r="ACG5">
+        <v>4.9065450479565398E-3</v>
+      </c>
+      <c r="ACH5">
+        <v>4.9032800211377204E-3</v>
+      </c>
+      <c r="ACI5">
+        <v>4.9000205931752604E-3</v>
+      </c>
+      <c r="ACJ5">
+        <v>4.8968164473996902E-3</v>
+      </c>
+      <c r="ACK5">
+        <v>4.8936071621125503E-3</v>
+      </c>
+      <c r="ACL5">
+        <v>4.8903927818536603E-3</v>
+      </c>
+      <c r="ACM5">
+        <v>4.8871733509246599E-3</v>
+      </c>
+      <c r="ACN5">
+        <v>4.8839489133902696E-3</v>
+      </c>
+      <c r="ACO5">
+        <v>4.8807195130795298E-3</v>
+      </c>
+      <c r="ACP5">
+        <v>4.87755265601552E-3</v>
+      </c>
+      <c r="ACQ5">
+        <v>4.8743831535583504E-3</v>
+      </c>
+      <c r="ACR5">
+        <v>4.8712085593077903E-3</v>
+      </c>
+      <c r="ACS5">
+        <v>4.8680289168829801E-3</v>
+      </c>
+      <c r="ACT5">
+        <v>4.8648442696724E-3</v>
+      </c>
+      <c r="ACU5">
+        <v>4.8616546608351002E-3</v>
+      </c>
+      <c r="ACV5">
+        <v>4.8585140551647603E-3</v>
+      </c>
+      <c r="ACW5">
+        <v>4.85538355516085E-3</v>
+      </c>
+      <c r="ACX5">
+        <v>4.8522479675724896E-3</v>
+      </c>
+      <c r="ACY5">
+        <v>4.8491073353496804E-3</v>
+      </c>
+      <c r="ACZ5">
+        <v>4.84596170121786E-3</v>
+      </c>
+      <c r="ADA5">
+        <v>4.8428111076790903E-3</v>
+      </c>
+      <c r="ADB5">
+        <v>4.8396962900399002E-3</v>
+      </c>
+      <c r="ADC5">
+        <v>4.8366040332484504E-3</v>
+      </c>
+      <c r="ADD5">
+        <v>4.8335066940550604E-3</v>
+      </c>
+      <c r="ADE5">
+        <v>4.8304043147536901E-3</v>
+      </c>
+      <c r="ADF5">
+        <v>4.8272969374196497E-3</v>
+      </c>
+      <c r="ADG5">
+        <v>4.8241846039107101E-3</v>
+      </c>
+      <c r="ADH5">
+        <v>4.8210951228316199E-3</v>
+      </c>
+      <c r="ADI5">
+        <v>4.8180403704188302E-3</v>
+      </c>
+      <c r="ADJ5">
+        <v>4.81498054170614E-3</v>
+      </c>
+      <c r="ADK5">
+        <v>4.8119156783442999E-3</v>
+      </c>
+      <c r="ADL5">
+        <v>4.8088458217711103E-3</v>
+      </c>
+      <c r="ADM5">
+        <v>4.8057710132125104E-3</v>
+      </c>
+      <c r="ADN5">
+        <v>4.8027064287181403E-3</v>
+      </c>
+      <c r="ADO5">
+        <v>4.7996884615588101E-3</v>
+      </c>
+      <c r="ADP5">
+        <v>4.7966654250698902E-3</v>
+      </c>
+      <c r="ADQ5">
+        <v>4.7936373602714697E-3</v>
+      </c>
+      <c r="ADR5">
+        <v>4.7906043079762196E-3</v>
+      </c>
+      <c r="ADS5">
+        <v>4.7875663087904299E-3</v>
+      </c>
+      <c r="ADT5">
+        <v>4.7845261920214403E-3</v>
+      </c>
+      <c r="ADU5">
+        <v>4.7815443100294704E-3</v>
+      </c>
+      <c r="ADV5">
+        <v>4.7785573664978999E-3</v>
+      </c>
+      <c r="ADW5">
+        <v>4.7755654018284297E-3</v>
+      </c>
+      <c r="ADX5">
+        <v>4.7725684562206798E-3</v>
+      </c>
+      <c r="ADY5">
+        <v>4.7695665696732299E-3</v>
+      </c>
+      <c r="ADZ5">
+        <v>4.7665597819845102E-3</v>
+      </c>
+      <c r="AEA5">
+        <v>4.7636040240085298E-3</v>
+      </c>
+      <c r="AEB5">
+        <v>4.7606524925189802E-3</v>
+      </c>
+      <c r="AEC5">
+        <v>4.7576959478486999E-3</v>
+      </c>
+      <c r="AED5">
+        <v>4.7547344295961001E-3</v>
+      </c>
+      <c r="AEE5">
+        <v>4.7517679771637098E-3</v>
+      </c>
+      <c r="AEF5">
+        <v>4.7487966297590396E-3</v>
+      </c>
+      <c r="AEG5">
+        <v>4.7458638129822799E-3</v>
+      </c>
+      <c r="AEH5">
+        <v>4.7429470303572202E-3</v>
+      </c>
+      <c r="AEI5">
+        <v>4.7400252432501198E-3</v>
+      </c>
+      <c r="AEJ5">
+        <v>4.7370984906698003E-3</v>
+      </c>
+      <c r="AEK5">
+        <v>4.7341668114341401E-3</v>
+      </c>
+      <c r="AEL5">
+        <v>4.7312302441710197E-3</v>
+      </c>
+      <c r="AEM5">
+        <v>4.7283199843800097E-3</v>
+      </c>
+      <c r="AEN5">
+        <v>4.7254373045912098E-3</v>
+      </c>
+      <c r="AEO5">
+        <v>4.7225496297188096E-3</v>
+      </c>
+      <c r="AEP5">
+        <v>4.71965699819337E-3</v>
+      </c>
+      <c r="AEQ5">
+        <v>4.7167594482593299E-3</v>
+      </c>
+      <c r="AER5">
+        <v>4.7138570179759203E-3</v>
+      </c>
+      <c r="AES5">
+        <v>4.7085510989770497E-3</v>
+      </c>
+      <c r="AET5">
+        <v>4.6993606460112398E-3</v>
+      </c>
+      <c r="AEU5">
+        <v>4.6863073548506096E-3</v>
+      </c>
+      <c r="AEV5">
+        <v>4.6694224522543896E-3</v>
+      </c>
+      <c r="AEW5">
+        <v>4.6487465716169001E-3</v>
+      </c>
+      <c r="AEX5">
+        <v>4.6243295900941801E-3</v>
+      </c>
+      <c r="AEY5">
+        <v>4.5962304281225597E-3</v>
+      </c>
+      <c r="AEZ5">
+        <v>4.5645168124570298E-3</v>
+      </c>
+      <c r="AFA5">
+        <v>4.5292650040627096E-3</v>
+      </c>
+      <c r="AFB5">
+        <v>4.4905594923883496E-3</v>
+      </c>
+      <c r="AFC5">
+        <v>4.44849265773045E-3</v>
+      </c>
+      <c r="AFD5">
+        <v>4.4031644035499298E-3</v>
+      </c>
+      <c r="AFE5">
+        <v>4.3546817606893501E-3</v>
+      </c>
+      <c r="AFF5">
+        <v>4.3031584653158601E-3</v>
+      </c>
+      <c r="AFG5">
+        <v>4.2487145115679198E-3</v>
+      </c>
+      <c r="AFH5">
+        <v>4.1914756764400603E-3</v>
+      </c>
+      <c r="AFI5">
+        <v>4.1315730015883097E-3</v>
+      </c>
+      <c r="AFJ5">
+        <v>4.0691421697288798E-3</v>
+      </c>
+      <c r="AFK5">
+        <v>4.0043225422430303E-3</v>
+      </c>
+      <c r="AFL5">
+        <v>3.9372550033203498E-3</v>
+      </c>
+      <c r="AFM5">
+        <v>3.86807550189887E-3</v>
+      </c>
+      <c r="AFN5">
+        <v>3.79689301189028E-3</v>
+      </c>
+      <c r="AFO5">
+        <v>3.7237110381029099E-3</v>
+      </c>
+      <c r="AFP5">
+        <v>3.6481447043643202E-3</v>
+      </c>
+      <c r="AFQ5">
+        <v>3.56839824624553E-3</v>
+      </c>
+      <c r="AFR5">
+        <v>3.47756883326359E-3</v>
+      </c>
+      <c r="AFS5">
+        <v>3.3502930461529602E-3</v>
+      </c>
+      <c r="AFT5">
+        <v>3.0945400557028202E-3</v>
+      </c>
+      <c r="AFU5">
+        <v>2.3777246822257502E-3</v>
+      </c>
+      <c r="AFV5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:1918" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>11</v>
       </c>
+      <c r="B6" s="20">
+        <v>0</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.15199968876439501</v>
+      </c>
+      <c r="D6" s="20">
+        <v>6.5477136973175906E-2</v>
+      </c>
+      <c r="E6" s="20">
+        <v>3.88967515303325E-2</v>
+      </c>
+      <c r="F6" s="20">
+        <v>2.9140804266784701E-2</v>
+      </c>
+      <c r="G6" s="20">
+        <v>2.38217346676943E-2</v>
+      </c>
+      <c r="H6" s="20">
+        <v>2.04573955663209E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.8129018920091802E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.6409870231957498E-2</v>
+      </c>
+      <c r="K6">
+        <v>1.50796803299374E-2</v>
+      </c>
+      <c r="L6">
+        <v>1.40137831466001E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.3136306363079E-2</v>
+      </c>
+      <c r="N6">
+        <v>1.2404478238730201E-2</v>
+      </c>
+      <c r="O6">
+        <v>1.1784596676751699E-2</v>
+      </c>
+      <c r="P6">
+        <v>1.12455136754404E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.0771158691610201E-2</v>
+      </c>
+      <c r="R6">
+        <v>1.0349579228759001E-2</v>
+      </c>
+      <c r="S6">
+        <v>9.97168329140799E-3</v>
+      </c>
+      <c r="T6">
+        <v>9.6304195570133394E-3</v>
+      </c>
+      <c r="U6">
+        <v>9.3250605084599404E-3</v>
+      </c>
+      <c r="V6">
+        <v>9.04766046280687E-3</v>
+      </c>
+      <c r="W6">
+        <v>8.7923178620122992E-3</v>
+      </c>
+      <c r="X6">
+        <v>8.5562412955354997E-3</v>
+      </c>
+      <c r="Y6">
+        <v>8.33710937409168E-3</v>
+      </c>
+      <c r="Z6">
+        <v>8.1329738449126606E-3</v>
+      </c>
+      <c r="AA6">
+        <v>7.9453902704671401E-3</v>
+      </c>
+      <c r="AB6">
+        <v>7.7706606106126303E-3</v>
+      </c>
+      <c r="AC6">
+        <v>7.6061795885066499E-3</v>
+      </c>
+      <c r="AD6">
+        <v>7.4509720221447601E-3</v>
+      </c>
+      <c r="AE6">
+        <v>7.3041880208774999E-3</v>
+      </c>
+      <c r="AF6">
+        <v>7.1650830276256804E-3</v>
+      </c>
+      <c r="AG6">
+        <v>7.0361004849130004E-3</v>
+      </c>
+      <c r="AH6">
+        <v>6.9133928420731698E-3</v>
+      </c>
+      <c r="AI6">
+        <v>6.7963345896773601E-3</v>
+      </c>
+      <c r="AJ6">
+        <v>6.6844985605162997E-3</v>
+      </c>
+      <c r="AK6">
+        <v>6.5775016076788399E-3</v>
+      </c>
+      <c r="AL6">
+        <v>6.4758314820276396E-3</v>
+      </c>
+      <c r="AM6">
+        <v>6.3799104741787604E-3</v>
+      </c>
+      <c r="AN6">
+        <v>6.28769514366905E-3</v>
+      </c>
+      <c r="AO6">
+        <v>6.1989486014707397E-3</v>
+      </c>
+      <c r="AP6">
+        <v>6.1134547115318299E-3</v>
+      </c>
+      <c r="AQ6">
+        <v>6.0310158075756598E-3</v>
+      </c>
+      <c r="AR6">
+        <v>5.9529613828593403E-3</v>
+      </c>
+      <c r="AS6">
+        <v>5.8779608733754403E-3</v>
+      </c>
+      <c r="AT6">
+        <v>5.8053845322457104E-3</v>
+      </c>
+      <c r="AU6">
+        <v>5.7351018853343096E-3</v>
+      </c>
+      <c r="AV6">
+        <v>5.6669921253718397E-3</v>
+      </c>
+      <c r="AW6">
+        <v>5.60133420739517E-3</v>
+      </c>
+      <c r="AX6">
+        <v>5.5388299535829204E-3</v>
+      </c>
+      <c r="AY6">
+        <v>5.47808698564301E-3</v>
+      </c>
+      <c r="AZ6">
+        <v>5.41902235346045E-3</v>
+      </c>
+      <c r="BA6">
+        <v>5.3615584975862003E-3</v>
+      </c>
+      <c r="BB6">
+        <v>5.3056228069362898E-3</v>
+      </c>
+      <c r="BC6">
+        <v>5.2521536609586202E-3</v>
+      </c>
+      <c r="BD6">
+        <v>5.20037279812213E-3</v>
+      </c>
+      <c r="BE6">
+        <v>5.1498564894800402E-3</v>
+      </c>
+      <c r="BF6">
+        <v>5.1005529695492598E-3</v>
+      </c>
+      <c r="BG6">
+        <v>5.0524134017288103E-3</v>
+      </c>
+      <c r="BH6">
+        <v>5.0056953970056602E-3</v>
+      </c>
+      <c r="BI6">
+        <v>4.9608915852789896E-3</v>
+      </c>
+      <c r="BJ6">
+        <v>4.9170634329687903E-3</v>
+      </c>
+      <c r="BK6">
+        <v>4.8741752951333003E-3</v>
+      </c>
+      <c r="BL6">
+        <v>4.8321933264648502E-3</v>
+      </c>
+      <c r="BM6">
+        <v>4.7910853666512099E-3</v>
+      </c>
+      <c r="BN6">
+        <v>4.7516203390631602E-3</v>
+      </c>
+      <c r="BO6">
+        <v>4.7131398795755399E-3</v>
+      </c>
+      <c r="BP6">
+        <v>4.6754018817553797E-3</v>
+      </c>
+      <c r="BQ6">
+        <v>4.6383823082643003E-3</v>
+      </c>
+      <c r="BR6">
+        <v>4.6020581961712104E-3</v>
+      </c>
+      <c r="BS6">
+        <v>4.5667076741164403E-3</v>
+      </c>
+      <c r="BT6">
+        <v>4.5325816057276598E-3</v>
+      </c>
+      <c r="BU6">
+        <v>4.4990513204919104E-3</v>
+      </c>
+      <c r="BV6">
+        <v>4.4660993985834096E-3</v>
+      </c>
+      <c r="BW6">
+        <v>4.4337091210750997E-3</v>
+      </c>
+      <c r="BX6">
+        <v>4.4018644346683804E-3</v>
+      </c>
+      <c r="BY6">
+        <v>4.3712478496719101E-3</v>
+      </c>
+      <c r="BZ6">
+        <v>4.3412071474839197E-3</v>
+      </c>
+      <c r="CA6">
+        <v>4.3116381597535502E-3</v>
+      </c>
+      <c r="CB6">
+        <v>4.2825285148785199E-3</v>
+      </c>
+      <c r="CC6">
+        <v>4.2538662858272996E-3</v>
+      </c>
+      <c r="CD6">
+        <v>4.2259561795807699E-3</v>
+      </c>
+      <c r="CE6">
+        <v>4.1988470765075099E-3</v>
+      </c>
+      <c r="CF6">
+        <v>4.1721270354853398E-3</v>
+      </c>
+      <c r="CG6">
+        <v>4.1457867778593796E-3</v>
+      </c>
+      <c r="CH6">
+        <v>4.1198173257878303E-3</v>
+      </c>
+      <c r="CI6">
+        <v>4.0942152591064802E-3</v>
+      </c>
+      <c r="CJ6">
+        <v>4.0695968226835298E-3</v>
+      </c>
+      <c r="CK6">
+        <v>4.0453024022876196E-3</v>
+      </c>
+      <c r="CL6">
+        <v>4.0213249612748702E-3</v>
+      </c>
+      <c r="CM6">
+        <v>3.9976576683666398E-3</v>
+      </c>
+      <c r="CN6">
+        <v>3.9742938905046503E-3</v>
+      </c>
+      <c r="CO6">
+        <v>3.9515619231957301E-3</v>
+      </c>
+      <c r="CP6">
+        <v>3.9293526671528196E-3</v>
+      </c>
+      <c r="CQ6">
+        <v>3.9074101579257801E-3</v>
+      </c>
+      <c r="CR6">
+        <v>3.8857291515590701E-3</v>
+      </c>
+      <c r="CS6">
+        <v>3.8643045407434598E-3</v>
+      </c>
+      <c r="CT6">
+        <v>3.84320996003758E-3</v>
+      </c>
+      <c r="CU6">
+        <v>3.8228085605058202E-3</v>
+      </c>
+      <c r="CV6">
+        <v>3.8026332603149299E-3</v>
+      </c>
+      <c r="CW6">
+        <v>3.7826800056949298E-3</v>
+      </c>
+      <c r="CX6">
+        <v>3.7629448371047799E-3</v>
+      </c>
+      <c r="CY6">
+        <v>3.74342388685812E-3</v>
+      </c>
+      <c r="CZ6">
+        <v>3.7244642848934099E-3</v>
+      </c>
+      <c r="DA6">
+        <v>3.7058351684149801E-3</v>
+      </c>
+      <c r="DB6">
+        <v>3.6873957668259699E-3</v>
+      </c>
+      <c r="DC6">
+        <v>3.6691429943803001E-3</v>
+      </c>
+      <c r="DD6">
+        <v>3.6510738286991301E-3</v>
+      </c>
+      <c r="DE6">
+        <v>3.6333197681532002E-3</v>
+      </c>
+      <c r="DF6">
+        <v>3.6160525476543102E-3</v>
+      </c>
+      <c r="DG6">
+        <v>3.5989483087630401E-3</v>
+      </c>
+      <c r="DH6">
+        <v>3.5820046380025498E-3</v>
+      </c>
+      <c r="DI6">
+        <v>3.5652191651235998E-3</v>
+      </c>
+      <c r="DJ6">
+        <v>3.5485895624810899E-3</v>
+      </c>
+      <c r="DK6">
+        <v>3.5324773005999798E-3</v>
+      </c>
+      <c r="DL6">
+        <v>3.5165576369207601E-3</v>
+      </c>
+      <c r="DM6">
+        <v>3.5007767763947399E-3</v>
+      </c>
+      <c r="DN6">
+        <v>3.4851328564923698E-3</v>
+      </c>
+      <c r="DO6">
+        <v>3.4696240433589498E-3</v>
+      </c>
+      <c r="DP6">
+        <v>3.45442583700952E-3</v>
+      </c>
+      <c r="DQ6">
+        <v>3.4395628340716002E-3</v>
+      </c>
+      <c r="DR6">
+        <v>3.4248203241494198E-3</v>
+      </c>
+      <c r="DS6">
+        <v>3.4101968432153E-3</v>
+      </c>
+      <c r="DT6">
+        <v>3.3956909458994098E-3</v>
+      </c>
+      <c r="DU6">
+        <v>3.38131546186604E-3</v>
+      </c>
+      <c r="DV6">
+        <v>3.36739967660961E-3</v>
+      </c>
+      <c r="DW6">
+        <v>3.35358887807435E-3</v>
+      </c>
+      <c r="DX6">
+        <v>3.3398819172578299E-3</v>
+      </c>
+      <c r="DY6">
+        <v>3.3262776565867098E-3</v>
+      </c>
+      <c r="DZ6">
+        <v>3.3127749700968601E-3</v>
+      </c>
+      <c r="EA6">
+        <v>3.2995831847812099E-3</v>
+      </c>
+      <c r="EB6">
+        <v>3.2866121320738401E-3</v>
+      </c>
+      <c r="EC6">
+        <v>3.2737319559933802E-3</v>
+      </c>
+      <c r="ED6">
+        <v>3.2609417643533999E-3</v>
+      </c>
+      <c r="EE6">
+        <v>3.2482406714455401E-3</v>
+      </c>
+      <c r="EF6">
+        <v>3.2356938716557801E-3</v>
+      </c>
+      <c r="EG6">
+        <v>3.2234827789765102E-3</v>
+      </c>
+      <c r="EH6">
+        <v>3.2113514439720899E-3</v>
+      </c>
+      <c r="EI6">
+        <v>3.1992991711570998E-3</v>
+      </c>
+      <c r="EJ6">
+        <v>3.1873252678046898E-3</v>
+      </c>
+      <c r="EK6">
+        <v>3.17542904424349E-3</v>
+      </c>
+      <c r="EL6">
+        <v>3.16384606517227E-3</v>
+      </c>
+      <c r="EM6">
+        <v>3.1523955022339698E-3</v>
+      </c>
+      <c r="EN6">
+        <v>3.1410145731726102E-3</v>
+      </c>
+      <c r="EO6">
+        <v>3.1297027409991299E-3</v>
+      </c>
+      <c r="EP6">
+        <v>3.1184594691188098E-3</v>
+      </c>
+      <c r="EQ6">
+        <v>3.10739138589626E-3</v>
+      </c>
+      <c r="ER6">
+        <v>3.09656185088959E-3</v>
+      </c>
+      <c r="ES6">
+        <v>3.08579377377386E-3</v>
+      </c>
+      <c r="ET6">
+        <v>3.0750867437496E-3</v>
+      </c>
+      <c r="EU6">
+        <v>3.06444034849417E-3</v>
+      </c>
+      <c r="EV6">
+        <v>3.0538541744705898E-3</v>
+      </c>
+      <c r="EW6">
+        <v>3.0435842772224002E-3</v>
+      </c>
+      <c r="EX6">
+        <v>3.0333774259607002E-3</v>
+      </c>
+      <c r="EY6">
+        <v>3.02322460435576E-3</v>
+      </c>
+      <c r="EZ6">
+        <v>3.0131255013147698E-3</v>
+      </c>
+      <c r="FA6">
+        <v>3.0030798031626402E-3</v>
+      </c>
+      <c r="FB6">
+        <v>2.9932272871332202E-3</v>
+      </c>
+      <c r="FC6">
+        <v>2.98353590048304E-3</v>
+      </c>
+      <c r="FD6">
+        <v>2.9738924023417299E-3</v>
+      </c>
+      <c r="FE6">
+        <v>2.9642965643065801E-3</v>
+      </c>
+      <c r="FF6">
+        <v>2.954748154428E-3</v>
+      </c>
+      <c r="FG6">
+        <v>2.9452816947376798E-3</v>
+      </c>
+      <c r="FH6">
+        <v>2.9360650480042098E-3</v>
+      </c>
+      <c r="FI6">
+        <v>2.92689089617014E-3</v>
+      </c>
+      <c r="FJ6">
+        <v>2.9177590785260899E-3</v>
+      </c>
+      <c r="FK6">
+        <v>2.9086694301532E-3</v>
+      </c>
+      <c r="FL6">
+        <v>2.8996217821940398E-3</v>
+      </c>
+      <c r="FM6">
+        <v>2.8907826769462601E-3</v>
+      </c>
+      <c r="FN6">
+        <v>2.8820421341604601E-3</v>
+      </c>
+      <c r="FO6">
+        <v>2.87333922815311E-3</v>
+      </c>
+      <c r="FP6">
+        <v>2.8646738490722499E-3</v>
+      </c>
+      <c r="FQ6">
+        <v>2.85604588267658E-3</v>
+      </c>
+      <c r="FR6">
+        <v>2.84752560847962E-3</v>
+      </c>
+      <c r="FS6">
+        <v>2.83918661720683E-3</v>
+      </c>
+      <c r="FT6">
+        <v>2.83088110687863E-3</v>
+      </c>
+      <c r="FU6">
+        <v>2.8226090129265099E-3</v>
+      </c>
+      <c r="FV6">
+        <v>2.8143702661098998E-3</v>
+      </c>
+      <c r="FW6">
+        <v>2.8061647927473499E-3</v>
+      </c>
+      <c r="FX6">
+        <v>2.7981809102049201E-3</v>
+      </c>
+      <c r="FY6">
+        <v>2.7902444139312802E-3</v>
+      </c>
+      <c r="FZ6">
+        <v>2.7823376840199702E-3</v>
+      </c>
+      <c r="GA6">
+        <v>2.7744606883244598E-3</v>
+      </c>
+      <c r="GB6">
+        <v>2.76661339008589E-3</v>
+      </c>
+      <c r="GC6">
+        <v>2.7588956206928599E-3</v>
+      </c>
+      <c r="GD6">
+        <v>2.75130250218188E-3</v>
+      </c>
+      <c r="GE6">
+        <v>2.7437359003510101E-3</v>
+      </c>
+      <c r="GF6">
+        <v>2.7361958136225199E-3</v>
+      </c>
+      <c r="GG6">
+        <v>2.7286822357289299E-3</v>
+      </c>
+      <c r="GH6">
+        <v>2.7212136798205702E-3</v>
+      </c>
+      <c r="GI6">
+        <v>2.71394071647951E-3</v>
+      </c>
+      <c r="GJ6">
+        <v>2.7066913693695699E-3</v>
+      </c>
+      <c r="GK6">
+        <v>2.6994656620787502E-3</v>
+      </c>
+      <c r="GL6">
+        <v>2.6922636134981601E-3</v>
+      </c>
+      <c r="GM6">
+        <v>2.68508523800264E-3</v>
+      </c>
+      <c r="GN6">
+        <v>2.6780549725748601E-3</v>
+      </c>
+      <c r="GO6">
+        <v>2.6711020929728602E-3</v>
+      </c>
+      <c r="GP6">
+        <v>2.66417027909747E-3</v>
+      </c>
+      <c r="GQ6">
+        <v>2.6572595705631899E-3</v>
+      </c>
+      <c r="GR6">
+        <v>2.6503700025001299E-3</v>
+      </c>
+      <c r="GS6">
+        <v>2.6435505365304899E-3</v>
+      </c>
+      <c r="GT6">
+        <v>2.6368751854120298E-3</v>
+      </c>
+      <c r="GU6">
+        <v>2.6302185905926899E-3</v>
+      </c>
+      <c r="GV6">
+        <v>2.6235808087118201E-3</v>
+      </c>
+      <c r="GW6">
+        <v>2.61696189199488E-3</v>
+      </c>
+      <c r="GX6">
+        <v>2.6103618884035298E-3</v>
+      </c>
+      <c r="GY6">
+        <v>2.6039258529280901E-3</v>
+      </c>
+      <c r="GZ6">
+        <v>2.5975274139496498E-3</v>
+      </c>
+      <c r="HA6">
+        <v>2.5911457256709799E-3</v>
+      </c>
+      <c r="HB6">
+        <v>2.5847808543415702E-3</v>
+      </c>
+      <c r="HC6">
+        <v>2.5784328620062202E-3</v>
+      </c>
+      <c r="HD6">
+        <v>2.5721765092524499E-3</v>
+      </c>
+      <c r="HE6">
+        <v>2.5660205986989099E-3</v>
+      </c>
+      <c r="HF6">
+        <v>2.5598795757173901E-3</v>
+      </c>
+      <c r="HG6">
+        <v>2.5537535028410702E-3</v>
+      </c>
+      <c r="HH6">
+        <v>2.54764238805474E-3</v>
+      </c>
+      <c r="HI6">
+        <v>2.5415553738635001E-3</v>
+      </c>
+      <c r="HJ6">
+        <v>2.5356255929817701E-3</v>
+      </c>
+      <c r="HK6">
+        <v>2.5297024933701199E-3</v>
+      </c>
+      <c r="HL6">
+        <v>2.52376593967755E-3</v>
+      </c>
+      <c r="HM6">
+        <v>2.5177346616571598E-3</v>
+      </c>
+      <c r="HN6">
+        <v>2.5089881873572701E-3</v>
+      </c>
+      <c r="HO6">
+        <v>2.4907830105199498E-3</v>
+      </c>
+      <c r="HP6">
+        <v>2.45862979827699E-3</v>
+      </c>
+      <c r="HQ6">
+        <v>2.3958668712831801E-3</v>
+      </c>
+      <c r="HR6">
+        <v>2.2386851765696298E-3</v>
+      </c>
+      <c r="HS6">
+        <v>1.74487683882294E-3</v>
+      </c>
+      <c r="HT6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:1918" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>12</v>
       </c>
+      <c r="B7" s="20">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.23490860990861001</v>
+      </c>
+      <c r="D7" s="20">
+        <v>8.11076850272342E-2</v>
+      </c>
+      <c r="E7" s="20">
+        <v>5.4583052649190403E-2</v>
+      </c>
+      <c r="F7" s="20">
+        <v>4.2755694986019901E-2</v>
+      </c>
+      <c r="G7">
+        <v>3.5942339613348001E-2</v>
+      </c>
+      <c r="H7">
+        <v>3.1447359316165699E-2</v>
+      </c>
+      <c r="I7">
+        <v>2.8240154329081901E-2</v>
+      </c>
+      <c r="J7">
+        <v>2.58078414307766E-2</v>
+      </c>
+      <c r="K7">
+        <v>2.3896370056033699E-2</v>
+      </c>
+      <c r="L7">
+        <v>2.2338927590223202E-2</v>
+      </c>
+      <c r="M7">
+        <v>2.1045196404699401E-2</v>
+      </c>
+      <c r="N7">
+        <v>1.99488534538085E-2</v>
+      </c>
+      <c r="O7">
+        <v>1.9002910763992999E-2</v>
+      </c>
+      <c r="P7">
+        <v>1.8176518834564299E-2</v>
+      </c>
+      <c r="Q7">
+        <v>1.7450061660865698E-2</v>
+      </c>
+      <c r="R7">
+        <v>1.6802363970920699E-2</v>
+      </c>
+      <c r="S7">
+        <v>1.6220289981717099E-2</v>
+      </c>
+      <c r="T7">
+        <v>1.56936068454748E-2</v>
+      </c>
+      <c r="U7">
+        <v>1.52153978139715E-2</v>
+      </c>
+      <c r="V7">
+        <v>1.47781707689154E-2</v>
+      </c>
+      <c r="W7">
+        <v>1.4375914932820699E-2</v>
+      </c>
+      <c r="X7">
+        <v>1.4004250631439501E-2</v>
+      </c>
+      <c r="Y7">
+        <v>1.36595222389657E-2</v>
+      </c>
+      <c r="Z7">
+        <v>1.3339597955330299E-2</v>
+      </c>
+      <c r="AA7">
+        <v>1.30409702957097E-2</v>
+      </c>
+      <c r="AB7">
+        <v>1.2761217921392599E-2</v>
+      </c>
+      <c r="AC7">
+        <v>1.2498446709015501E-2</v>
+      </c>
+      <c r="AD7">
+        <v>1.2251016442786301E-2</v>
+      </c>
+      <c r="AE7">
+        <v>1.2018006360286101E-2</v>
+      </c>
+      <c r="AF7">
+        <v>1.17978678862911E-2</v>
+      </c>
+      <c r="AG7">
+        <v>1.15892105895692E-2</v>
+      </c>
+      <c r="AH7">
+        <v>1.13910750644464E-2</v>
+      </c>
+      <c r="AI7">
+        <v>1.12026098540938E-2</v>
+      </c>
+      <c r="AJ7">
+        <v>1.102319363494E-2</v>
+      </c>
+      <c r="AK7">
+        <v>1.0852428292172599E-2</v>
+      </c>
+      <c r="AL7">
+        <v>1.0689234614596199E-2</v>
+      </c>
+      <c r="AM7">
+        <v>1.0533071188491099E-2</v>
+      </c>
+      <c r="AN7">
+        <v>1.0383449023390201E-2</v>
+      </c>
+      <c r="AO7">
+        <v>1.02399252335416E-2</v>
+      </c>
+      <c r="AP7">
+        <v>1.0102397815979901E-2</v>
+      </c>
+      <c r="AQ7">
+        <v>9.9703121006709198E-3</v>
+      </c>
+      <c r="AR7">
+        <v>9.8431888170047097E-3</v>
+      </c>
+      <c r="AS7">
+        <v>9.7207255585068202E-3</v>
+      </c>
+      <c r="AT7">
+        <v>9.6026449991393602E-3</v>
+      </c>
+      <c r="AU7">
+        <v>9.4887011598398206E-3</v>
+      </c>
+      <c r="AV7">
+        <v>9.3789892426478002E-3</v>
+      </c>
+      <c r="AW7">
+        <v>9.2729293572303001E-3</v>
+      </c>
+      <c r="AX7">
+        <v>9.1703236073510195E-3</v>
+      </c>
+      <c r="AY7">
+        <v>9.0709887365489992E-3</v>
+      </c>
+      <c r="AZ7">
+        <v>8.9747547698426893E-3</v>
+      </c>
+      <c r="BA7">
+        <v>8.88155192710041E-3</v>
+      </c>
+      <c r="BB7">
+        <v>8.7913371861339101E-3</v>
+      </c>
+      <c r="BC7">
+        <v>8.7037641969624907E-3</v>
+      </c>
+      <c r="BD7">
+        <v>8.6187065879790008E-3</v>
+      </c>
+      <c r="BE7">
+        <v>8.5360462651083505E-3</v>
+      </c>
+      <c r="BF7">
+        <v>8.4556727298998203E-3</v>
+      </c>
+      <c r="BG7">
+        <v>8.3776108703952808E-3</v>
+      </c>
+      <c r="BH7">
+        <v>8.3017392118764303E-3</v>
+      </c>
+      <c r="BI7">
+        <v>8.2278496491103702E-3</v>
+      </c>
+      <c r="BJ7">
+        <v>8.1558573557892495E-3</v>
+      </c>
+      <c r="BK7">
+        <v>8.0856824881697896E-3</v>
+      </c>
+      <c r="BL7">
+        <v>8.0172498161791301E-3</v>
+      </c>
+      <c r="BM7">
+        <v>7.9506365487795102E-3</v>
+      </c>
+      <c r="BN7">
+        <v>7.8856765290614608E-3</v>
+      </c>
+      <c r="BO7">
+        <v>7.8222476054771502E-3</v>
+      </c>
+      <c r="BP7">
+        <v>7.7602905234092703E-3</v>
+      </c>
+      <c r="BQ7">
+        <v>7.6997491816621104E-3</v>
+      </c>
+      <c r="BR7">
+        <v>7.6405704205594399E-3</v>
+      </c>
+      <c r="BS7">
+        <v>7.5828604897127897E-3</v>
+      </c>
+      <c r="BT7">
+        <v>7.5264283507603504E-3</v>
+      </c>
+      <c r="BU7">
+        <v>7.4712073348136496E-3</v>
+      </c>
+      <c r="BV7">
+        <v>7.4171546799431803E-3</v>
+      </c>
+      <c r="BW7">
+        <v>7.3642297036411999E-3</v>
+      </c>
+      <c r="BX7">
+        <v>7.31239707632814E-3</v>
+      </c>
+      <c r="BY7">
+        <v>7.2617685362064196E-3</v>
+      </c>
+      <c r="BZ7">
+        <v>7.2121503038936399E-3</v>
+      </c>
+      <c r="CA7">
+        <v>7.1635091665088304E-3</v>
+      </c>
+      <c r="CB7">
+        <v>7.1158134164805301E-3</v>
+      </c>
+      <c r="CC7">
+        <v>7.0690327651937498E-3</v>
+      </c>
+      <c r="CD7">
+        <v>7.0231585826258901E-3</v>
+      </c>
+      <c r="CE7">
+        <v>6.9782596542490097E-3</v>
+      </c>
+      <c r="CF7">
+        <v>6.9341873472063302E-3</v>
+      </c>
+      <c r="CG7">
+        <v>6.8909165532655501E-3</v>
+      </c>
+      <c r="CH7">
+        <v>6.8484232168382802E-3</v>
+      </c>
+      <c r="CI7">
+        <v>6.8066842790648202E-3</v>
+      </c>
+      <c r="CJ7">
+        <v>6.7657094651766498E-3</v>
+      </c>
+      <c r="CK7">
+        <v>6.7255360459124803E-3</v>
+      </c>
+      <c r="CL7">
+        <v>6.6860488963415799E-3</v>
+      </c>
+      <c r="CM7">
+        <v>6.6472286497189998E-3</v>
+      </c>
+      <c r="CN7">
+        <v>6.6090566943759702E-3</v>
+      </c>
+      <c r="CO7">
+        <v>6.5715151363873502E-3</v>
+      </c>
+      <c r="CP7">
+        <v>6.5346264710080702E-3</v>
+      </c>
+      <c r="CQ7">
+        <v>6.4984045115123604E-3</v>
+      </c>
+      <c r="CR7">
+        <v>6.4627595206810497E-3</v>
+      </c>
+      <c r="CS7">
+        <v>6.4276762985462999E-3</v>
+      </c>
+      <c r="CT7">
+        <v>6.3931401988256299E-3</v>
+      </c>
+      <c r="CU7">
+        <v>6.3591371033260803E-3</v>
+      </c>
+      <c r="CV7">
+        <v>6.3256984508476997E-3</v>
+      </c>
+      <c r="CW7">
+        <v>6.2928203898359996E-3</v>
+      </c>
+      <c r="CX7">
+        <v>6.2604327607305001E-3</v>
+      </c>
+      <c r="CY7">
+        <v>6.2285234515712402E-3</v>
+      </c>
+      <c r="CZ7">
+        <v>6.1970807642923202E-3</v>
+      </c>
+      <c r="DA7">
+        <v>6.1660933967611197E-3</v>
+      </c>
+      <c r="DB7">
+        <v>6.1355990582984601E-3</v>
+      </c>
+      <c r="DC7">
+        <v>6.1055804711797196E-3</v>
+      </c>
+      <c r="DD7">
+        <v>6.0759828048171103E-3</v>
+      </c>
+      <c r="DE7">
+        <v>6.0467962781963298E-3</v>
+      </c>
+      <c r="DF7">
+        <v>6.0180114249875202E-3</v>
+      </c>
+      <c r="DG7">
+        <v>5.9896190806816097E-3</v>
+      </c>
+      <c r="DH7">
+        <v>5.9616613272728096E-3</v>
+      </c>
+      <c r="DI7">
+        <v>5.9341106104580004E-3</v>
+      </c>
+      <c r="DJ7">
+        <v>5.9069242620813801E-3</v>
+      </c>
+      <c r="DK7">
+        <v>5.8800942893933797E-3</v>
+      </c>
+      <c r="DL7">
+        <v>5.85361294252574E-3</v>
+      </c>
+      <c r="DM7">
+        <v>5.8274727051095898E-3</v>
+      </c>
+      <c r="DN7">
+        <v>5.80171866604E-3</v>
+      </c>
+      <c r="DO7">
+        <v>5.7763153664432904E-3</v>
+      </c>
+      <c r="DP7">
+        <v>5.7512299007810401E-3</v>
+      </c>
+      <c r="DQ7">
+        <v>5.7264556681817401E-3</v>
+      </c>
+      <c r="DR7">
+        <v>5.7019862577724198E-3</v>
+      </c>
+      <c r="DS7">
+        <v>5.6778154417239804E-3</v>
+      </c>
+      <c r="DT7">
+        <v>5.6539903220416297E-3</v>
+      </c>
+      <c r="DU7">
+        <v>5.6304693428566701E-3</v>
+      </c>
+      <c r="DV7">
+        <v>5.6072275153657702E-3</v>
+      </c>
+      <c r="DW7">
+        <v>5.5842593361496396E-3</v>
+      </c>
+      <c r="DX7">
+        <v>5.56155945222544E-3</v>
+      </c>
+      <c r="DY7">
+        <v>5.5391226558156896E-3</v>
+      </c>
+      <c r="DZ7">
+        <v>5.51699733250899E-3</v>
+      </c>
+      <c r="EA7">
+        <v>5.4951372212270599E-3</v>
+      </c>
+      <c r="EB7">
+        <v>5.4735238112158802E-3</v>
+      </c>
+      <c r="EC7">
+        <v>5.4521524744990096E-3</v>
+      </c>
+      <c r="ED7">
+        <v>5.4310187035196402E-3</v>
+      </c>
+      <c r="EE7">
+        <v>5.41011810715359E-3</v>
+      </c>
+      <c r="EF7">
+        <v>5.3894998154409004E-3</v>
+      </c>
+      <c r="EG7">
+        <v>5.3691139435169399E-3</v>
+      </c>
+      <c r="EH7">
+        <v>5.3489473240066598E-3</v>
+      </c>
+      <c r="EI7">
+        <v>5.3289960346812699E-3</v>
+      </c>
+      <c r="EJ7">
+        <v>5.3092562506643799E-3</v>
+      </c>
+      <c r="EK7">
+        <v>5.2897242413565901E-3</v>
+      </c>
+      <c r="EL7">
+        <v>5.2704494809904297E-3</v>
+      </c>
+      <c r="EM7">
+        <v>5.2513793079048297E-3</v>
+      </c>
+      <c r="EN7">
+        <v>5.2325049936092502E-3</v>
+      </c>
+      <c r="EO7">
+        <v>5.2138231903047002E-3</v>
+      </c>
+      <c r="EP7">
+        <v>5.1953306296108701E-3</v>
+      </c>
+      <c r="EQ7">
+        <v>5.1770241201676897E-3</v>
+      </c>
+      <c r="ER7">
+        <v>5.15895318253179E-3</v>
+      </c>
+      <c r="ES7">
+        <v>5.1410630462478098E-3</v>
+      </c>
+      <c r="ET7">
+        <v>5.1233486937051504E-3</v>
+      </c>
+      <c r="EU7">
+        <v>5.1058072487662597E-3</v>
+      </c>
+      <c r="EV7">
+        <v>5.0884359006207799E-3</v>
+      </c>
+      <c r="EW7">
+        <v>5.0712325454863403E-3</v>
+      </c>
+      <c r="EX7">
+        <v>5.0542445978094697E-3</v>
+      </c>
+      <c r="EY7">
+        <v>5.0374176391262101E-3</v>
+      </c>
+      <c r="EZ7">
+        <v>5.0207491280023697E-3</v>
+      </c>
+      <c r="FA7">
+        <v>5.0042365787044997E-3</v>
+      </c>
+      <c r="FB7">
+        <v>4.9878775596455E-3</v>
+      </c>
+      <c r="FC7">
+        <v>4.9716726366173898E-3</v>
+      </c>
+      <c r="FD7">
+        <v>4.9556619808080104E-3</v>
+      </c>
+      <c r="FE7">
+        <v>4.9397969211062197E-3</v>
+      </c>
+      <c r="FF7">
+        <v>4.92407525088406E-3</v>
+      </c>
+      <c r="FG7">
+        <v>4.9084948099532297E-3</v>
+      </c>
+      <c r="FH7">
+        <v>4.8930534833204597E-3</v>
+      </c>
+      <c r="FI7">
+        <v>4.8777541009798701E-3</v>
+      </c>
+      <c r="FJ7">
+        <v>4.8626305042268596E-3</v>
+      </c>
+      <c r="FK7">
+        <v>4.8476390732184E-3</v>
+      </c>
+      <c r="FL7">
+        <v>4.8327778821148099E-3</v>
+      </c>
+      <c r="FM7">
+        <v>4.8180450440500301E-3</v>
+      </c>
+      <c r="FN7">
+        <v>4.8034387101271404E-3</v>
+      </c>
+      <c r="FO7">
+        <v>4.78896363838947E-3</v>
+      </c>
+      <c r="FP7">
+        <v>4.7746481137338004E-3</v>
+      </c>
+      <c r="FQ7">
+        <v>4.7604529777675996E-3</v>
+      </c>
+      <c r="FR7">
+        <v>4.7463765416505604E-3</v>
+      </c>
+      <c r="FS7">
+        <v>4.7324171494501199E-3</v>
+      </c>
+      <c r="FT7">
+        <v>4.7185731773248798E-3</v>
+      </c>
+      <c r="FU7">
+        <v>4.7048510308619696E-3</v>
+      </c>
+      <c r="FV7">
+        <v>4.6912740974703899E-3</v>
+      </c>
+      <c r="FW7">
+        <v>4.6778071772324899E-3</v>
+      </c>
+      <c r="FX7">
+        <v>4.6644487825408896E-3</v>
+      </c>
+      <c r="FY7">
+        <v>4.6511974537320599E-3</v>
+      </c>
+      <c r="FZ7">
+        <v>4.63805175841787E-3</v>
+      </c>
+      <c r="GA7">
+        <v>4.62501951430477E-3</v>
+      </c>
+      <c r="GB7">
+        <v>4.6121197756928897E-3</v>
+      </c>
+      <c r="GC7">
+        <v>4.59932086967672E-3</v>
+      </c>
+      <c r="GD7">
+        <v>4.5866214804619002E-3</v>
+      </c>
+      <c r="GE7">
+        <v>4.57402031610847E-3</v>
+      </c>
+      <c r="GF7">
+        <v>4.5615161079800501E-3</v>
+      </c>
+      <c r="GG7">
+        <v>4.54911788725879E-3</v>
+      </c>
+      <c r="GH7">
+        <v>4.5368408610110102E-3</v>
+      </c>
+      <c r="GI7">
+        <v>4.5246565111893402E-3</v>
+      </c>
+      <c r="GJ7">
+        <v>4.5125636694538698E-3</v>
+      </c>
+      <c r="GK7">
+        <v>4.5005611879287699E-3</v>
+      </c>
+      <c r="GL7">
+        <v>4.4886479387457401E-3</v>
+      </c>
+      <c r="GM7">
+        <v>4.4768339981263901E-3</v>
+      </c>
+      <c r="GN7">
+        <v>4.4651311461836301E-3</v>
+      </c>
+      <c r="GO7">
+        <v>4.4535136970875501E-3</v>
+      </c>
+      <c r="GP7">
+        <v>4.4419806096608E-3</v>
+      </c>
+      <c r="GQ7">
+        <v>4.4305308603628402E-3</v>
+      </c>
+      <c r="GR7">
+        <v>4.4191634429094802E-3</v>
+      </c>
+      <c r="GS7">
+        <v>4.4078893350870899E-3</v>
+      </c>
+      <c r="GT7">
+        <v>4.3967172552121904E-3</v>
+      </c>
+      <c r="GU7">
+        <v>4.3856240686223997E-3</v>
+      </c>
+      <c r="GV7">
+        <v>4.3746088443015101E-3</v>
+      </c>
+      <c r="GW7">
+        <v>4.3636706664995301E-3</v>
+      </c>
+      <c r="GX7">
+        <v>4.3528086344138701E-3</v>
+      </c>
+      <c r="GY7">
+        <v>4.3420345046658202E-3</v>
+      </c>
+      <c r="GZ7">
+        <v>4.33135425235934E-3</v>
+      </c>
+      <c r="HA7">
+        <v>4.3207470480870003E-3</v>
+      </c>
+      <c r="HB7">
+        <v>4.3102120566724904E-3</v>
+      </c>
+      <c r="HC7">
+        <v>4.2997484562076402E-3</v>
+      </c>
+      <c r="HD7">
+        <v>4.2893554377840199E-3</v>
+      </c>
+      <c r="HE7">
+        <v>4.2790454314611199E-3</v>
+      </c>
+      <c r="HF7">
+        <v>4.2688219481659996E-3</v>
+      </c>
+      <c r="HG7">
+        <v>4.2586662476791796E-3</v>
+      </c>
+      <c r="HH7">
+        <v>4.2485775785394498E-3</v>
+      </c>
+      <c r="HI7">
+        <v>4.2385552008614999E-3</v>
+      </c>
+      <c r="HJ7">
+        <v>4.2285983861088299E-3</v>
+      </c>
+      <c r="HK7">
+        <v>4.2187201469374002E-3</v>
+      </c>
+      <c r="HL7">
+        <v>4.2089217753907204E-3</v>
+      </c>
+      <c r="HM7">
+        <v>4.19918642984947E-3</v>
+      </c>
+      <c r="HN7">
+        <v>4.1895134322533396E-3</v>
+      </c>
+      <c r="HO7">
+        <v>4.1799021146780302E-3</v>
+      </c>
+      <c r="HP7">
+        <v>4.1703518191423703E-3</v>
+      </c>
+      <c r="HQ7">
+        <v>4.1608760623367902E-3</v>
+      </c>
+      <c r="HR7">
+        <v>4.15147413379685E-3</v>
+      </c>
+      <c r="HS7">
+        <v>4.1421309217708601E-3</v>
+      </c>
+      <c r="HT7">
+        <v>4.13284581278582E-3</v>
+      </c>
+      <c r="HU7">
+        <v>4.1236182022743604E-3</v>
+      </c>
+      <c r="HV7">
+        <v>4.1144474944101797E-3</v>
+      </c>
+      <c r="HW7">
+        <v>4.105347641762E-3</v>
+      </c>
+      <c r="HX7">
+        <v>4.0963161228454899E-3</v>
+      </c>
+      <c r="HY7">
+        <v>4.0873394058747702E-3</v>
+      </c>
+      <c r="HZ7">
+        <v>4.0784169344008402E-3</v>
+      </c>
+      <c r="IA7">
+        <v>4.0695481598246302E-3</v>
+      </c>
+      <c r="IB7">
+        <v>4.0607325412560999E-3</v>
+      </c>
+      <c r="IC7">
+        <v>4.0519844078407002E-3</v>
+      </c>
+      <c r="ID7">
+        <v>4.04329959705767E-3</v>
+      </c>
+      <c r="IE7">
+        <v>4.0346660234784797E-3</v>
+      </c>
+      <c r="IF7">
+        <v>4.0260831811616202E-3</v>
+      </c>
+      <c r="IG7">
+        <v>4.0175505711061597E-3</v>
+      </c>
+      <c r="IH7">
+        <v>4.0090677011306404E-3</v>
+      </c>
+      <c r="II7">
+        <v>4.0006492252198196E-3</v>
+      </c>
+      <c r="IJ7">
+        <v>3.99228949114831E-3</v>
+      </c>
+      <c r="IK7">
+        <v>3.9839777403908403E-3</v>
+      </c>
+      <c r="IL7">
+        <v>3.9757135118772702E-3</v>
+      </c>
+      <c r="IM7">
+        <v>3.96749635069192E-3</v>
+      </c>
+      <c r="IN7">
+        <v>3.9593258079690698E-3</v>
+      </c>
+      <c r="IO7">
+        <v>3.9512168172807999E-3</v>
+      </c>
+      <c r="IP7">
+        <v>3.9431623717939403E-3</v>
+      </c>
+      <c r="IQ7">
+        <v>3.93515293277482E-3</v>
+      </c>
+      <c r="IR7">
+        <v>3.9271880791324097E-3</v>
+      </c>
+      <c r="IS7">
+        <v>3.9192673952481603E-3</v>
+      </c>
+      <c r="IT7">
+        <v>3.9113904708854997E-3</v>
+      </c>
+      <c r="IU7">
+        <v>3.9035724795318102E-3</v>
+      </c>
+      <c r="IV7">
+        <v>3.8958051806636E-3</v>
+      </c>
+      <c r="IW7">
+        <v>3.8880801590282601E-3</v>
+      </c>
+      <c r="IX7">
+        <v>3.8803970292526999E-3</v>
+      </c>
+      <c r="IY7">
+        <v>3.8727554108425799E-3</v>
+      </c>
+      <c r="IZ7">
+        <v>3.8651549281038498E-3</v>
+      </c>
+      <c r="JA7">
+        <v>3.8576109595840199E-3</v>
+      </c>
+      <c r="JB7">
+        <v>3.8501141395625299E-3</v>
+      </c>
+      <c r="JC7">
+        <v>3.8426570894418101E-3</v>
+      </c>
+      <c r="JD7">
+        <v>3.8352394558428802E-3</v>
+      </c>
+      <c r="JE7">
+        <v>3.8278608897472101E-3</v>
+      </c>
+      <c r="JF7">
+        <v>3.8205210464282899E-3</v>
+      </c>
+      <c r="JG7">
+        <v>3.8132354788092998E-3</v>
+      </c>
+      <c r="JH7">
+        <v>3.8059937935465901E-3</v>
+      </c>
+      <c r="JI7">
+        <v>3.7987895702265499E-3</v>
+      </c>
+      <c r="JJ7">
+        <v>3.7916224842001502E-3</v>
+      </c>
+      <c r="JK7">
+        <v>3.7844922147247401E-3</v>
+      </c>
+      <c r="JL7">
+        <v>3.7773984449043598E-3</v>
+      </c>
+      <c r="JM7">
+        <v>3.7703568749756799E-3</v>
+      </c>
+      <c r="JN7">
+        <v>3.76335617192076E-3</v>
+      </c>
+      <c r="JO7">
+        <v>3.75639080242184E-3</v>
+      </c>
+      <c r="JP7">
+        <v>3.7494604676898201E-3</v>
+      </c>
+      <c r="JQ7">
+        <v>3.7425648724432399E-3</v>
+      </c>
+      <c r="JR7">
+        <v>3.7357037248559898E-3</v>
+      </c>
+      <c r="JS7">
+        <v>3.72889284857034E-3</v>
+      </c>
+      <c r="JT7">
+        <v>3.7221200503353199E-3</v>
+      </c>
+      <c r="JU7">
+        <v>3.7153806193835699E-3</v>
+      </c>
+      <c r="JV7">
+        <v>3.7086742802554698E-3</v>
+      </c>
+      <c r="JW7">
+        <v>3.7020007606478299E-3</v>
+      </c>
+      <c r="JX7">
+        <v>3.6953597913679599E-3</v>
+      </c>
+      <c r="JY7">
+        <v>3.6887672983102601E-3</v>
+      </c>
+      <c r="JZ7">
+        <v>3.6822102998919199E-3</v>
+      </c>
+      <c r="KA7">
+        <v>3.6756848491650098E-3</v>
+      </c>
+      <c r="KB7">
+        <v>3.6691906917622201E-3</v>
+      </c>
+      <c r="KC7">
+        <v>3.6627275761624599E-3</v>
+      </c>
+      <c r="KD7">
+        <v>3.6562952536505302E-3</v>
+      </c>
+      <c r="KE7">
+        <v>3.64990973363044E-3</v>
+      </c>
+      <c r="KF7">
+        <v>3.6435573113894298E-3</v>
+      </c>
+      <c r="KG7">
+        <v>3.6372347502490201E-3</v>
+      </c>
+      <c r="KH7">
+        <v>3.6309418149510901E-3</v>
+      </c>
+      <c r="KI7">
+        <v>3.6246782728091998E-3</v>
+      </c>
+      <c r="KJ7">
+        <v>3.6184438936729402E-3</v>
+      </c>
+      <c r="KK7">
+        <v>3.61225475382891E-3</v>
+      </c>
+      <c r="KL7">
+        <v>3.60609648466946E-3</v>
+      </c>
+      <c r="KM7">
+        <v>3.5999665108638001E-3</v>
+      </c>
+      <c r="KN7">
+        <v>3.5938646145007901E-3</v>
+      </c>
+      <c r="KO7">
+        <v>3.5877905799973401E-3</v>
+      </c>
+      <c r="KP7">
+        <v>3.5817441940668199E-3</v>
+      </c>
+      <c r="KQ7">
+        <v>3.5757415851117701E-3</v>
+      </c>
+      <c r="KR7">
+        <v>3.5697677745380098E-3</v>
+      </c>
+      <c r="KS7">
+        <v>3.5638208035850801E-3</v>
+      </c>
+      <c r="KT7">
+        <v>3.5579004701192002E-3</v>
+      </c>
+      <c r="KU7">
+        <v>3.5520065741178699E-3</v>
+      </c>
+      <c r="KV7">
+        <v>3.5461389176419601E-3</v>
+      </c>
+      <c r="KW7">
+        <v>3.5403136680827499E-3</v>
+      </c>
+      <c r="KX7">
+        <v>3.5345152860019901E-3</v>
+      </c>
+      <c r="KY7">
+        <v>3.5287423881521802E-3</v>
+      </c>
+      <c r="KZ7">
+        <v>3.5229947867755299E-3</v>
+      </c>
+      <c r="LA7">
+        <v>3.5172722960323398E-3</v>
+      </c>
+      <c r="LB7">
+        <v>3.5115747319761602E-3</v>
+      </c>
+      <c r="LC7">
+        <v>3.5059182893076701E-3</v>
+      </c>
+      <c r="LD7">
+        <v>3.5002869126138699E-3</v>
+      </c>
+      <c r="LE7">
+        <v>3.49467975644914E-3</v>
+      </c>
+      <c r="LF7">
+        <v>3.4890966461778401E-3</v>
+      </c>
+      <c r="LG7">
+        <v>3.4835374089097898E-3</v>
+      </c>
+      <c r="LH7">
+        <v>3.4780018734782299E-3</v>
+      </c>
+      <c r="LI7">
+        <v>3.4725062514947701E-3</v>
+      </c>
+      <c r="LJ7">
+        <v>3.46703401260186E-3</v>
+      </c>
+      <c r="LK7">
+        <v>3.4615848144612898E-3</v>
+      </c>
+      <c r="LL7">
+        <v>3.4561584944353099E-3</v>
+      </c>
+      <c r="LM7">
+        <v>3.4507548914771299E-3</v>
+      </c>
+      <c r="LN7">
+        <v>3.4453741280312399E-3</v>
+      </c>
+      <c r="LO7">
+        <v>3.4400315775972401E-3</v>
+      </c>
+      <c r="LP7">
+        <v>3.43471111820709E-3</v>
+      </c>
+      <c r="LQ7">
+        <v>3.4294125967405998E-3</v>
+      </c>
+      <c r="LR7">
+        <v>3.4241358615478001E-3</v>
+      </c>
+      <c r="LS7">
+        <v>3.41888076243111E-3</v>
+      </c>
+      <c r="LT7">
+        <v>3.4136478639777402E-3</v>
+      </c>
+      <c r="LU7">
+        <v>3.4084512447898302E-3</v>
+      </c>
+      <c r="LV7">
+        <v>3.4032756742743198E-3</v>
+      </c>
+      <c r="LW7">
+        <v>3.39812100950539E-3</v>
+      </c>
+      <c r="LX7">
+        <v>3.3929871088552799E-3</v>
+      </c>
+      <c r="LY7">
+        <v>3.38787383178201E-3</v>
+      </c>
+      <c r="LZ7">
+        <v>3.38278215615206E-3</v>
+      </c>
+      <c r="MA7">
+        <v>3.3777249294906402E-3</v>
+      </c>
+      <c r="MB7">
+        <v>3.3709711812364399E-3</v>
+      </c>
+      <c r="MC7">
+        <v>3.3575123329824099E-3</v>
+      </c>
+      <c r="MD7">
+        <v>3.3371152398762598E-3</v>
+      </c>
+      <c r="ME7">
+        <v>3.30990769050685E-3</v>
+      </c>
+      <c r="MF7">
+        <v>3.2760408708919801E-3</v>
+      </c>
+      <c r="MG7">
+        <v>3.23561758363853E-3</v>
+      </c>
+      <c r="MH7">
+        <v>3.18834969460596E-3</v>
+      </c>
+      <c r="MI7">
+        <v>3.13190292294387E-3</v>
+      </c>
+      <c r="MJ7">
+        <v>3.05388530791194E-3</v>
+      </c>
+      <c r="MK7">
+        <v>2.8931147147459799E-3</v>
+      </c>
+      <c r="ML7">
+        <v>2.3527120065086498E-3</v>
+      </c>
+      <c r="MM7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:1918" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>13</v>
       </c>
+      <c r="B8" s="20">
+        <v>0</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0.14765684051398301</v>
+      </c>
+      <c r="D8" s="20">
+        <v>3.7655077364762E-2</v>
+      </c>
+      <c r="E8" s="20">
+        <v>2.1571758962056601E-2</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1.5005058986532101E-2</v>
+      </c>
+      <c r="G8">
+        <v>1.15405132612789E-2</v>
+      </c>
+      <c r="H8">
+        <v>9.4375032099057905E-3</v>
+      </c>
+      <c r="I8">
+        <v>8.0381807207560805E-3</v>
+      </c>
+      <c r="J8">
+        <v>7.0443233932900202E-3</v>
+      </c>
+      <c r="K8">
+        <v>6.3032377420635102E-3</v>
+      </c>
+      <c r="L8">
+        <v>5.7294995007077599E-3</v>
+      </c>
+      <c r="M8">
+        <v>5.2719123289102603E-3</v>
+      </c>
+      <c r="N8">
+        <v>4.8980805500918202E-3</v>
+      </c>
+      <c r="O8">
+        <v>4.5865720257982799E-3</v>
+      </c>
+      <c r="P8">
+        <v>4.3226668857596802E-3</v>
+      </c>
+      <c r="Q8">
+        <v>4.0959447039289696E-3</v>
+      </c>
+      <c r="R8">
+        <v>3.89882194207749E-3</v>
+      </c>
+      <c r="S8">
+        <v>3.7256535563859102E-3</v>
+      </c>
+      <c r="T8">
+        <v>3.5721536032065999E-3</v>
+      </c>
+      <c r="U8">
+        <v>3.4350072092550099E-3</v>
+      </c>
+      <c r="V8">
+        <v>3.3116132194543299E-3</v>
+      </c>
+      <c r="W8">
+        <v>3.1998994469764901E-3</v>
+      </c>
+      <c r="X8">
+        <v>3.0981952500555099E-3</v>
+      </c>
+      <c r="Y8">
+        <v>3.0051395650641101E-3</v>
+      </c>
+      <c r="Z8">
+        <v>2.9196100118218399E-3</v>
+      </c>
+      <c r="AA8">
+        <v>2.8406744985748798E-3</v>
+      </c>
+      <c r="AB8">
+        <v>2.7675510635423802E-3</v>
+      </c>
+      <c r="AC8">
+        <v>2.69957951080037E-3</v>
+      </c>
+      <c r="AD8">
+        <v>2.6361976642835698E-3</v>
+      </c>
+      <c r="AE8">
+        <v>2.5769240168237802E-3</v>
+      </c>
+      <c r="AF8">
+        <v>2.5213438655991398E-3</v>
+      </c>
+      <c r="AG8">
+        <v>2.4690978487909199E-3</v>
+      </c>
+      <c r="AH8">
+        <v>2.4198727723998099E-3</v>
+      </c>
+      <c r="AI8">
+        <v>2.37339438349177E-3</v>
+      </c>
+      <c r="AJ8">
+        <v>2.3294215419017699E-3</v>
+      </c>
+      <c r="AK8">
+        <v>2.2877415732366602E-3</v>
+      </c>
+      <c r="AL8">
+        <v>2.2481655357928401E-3</v>
+      </c>
+      <c r="AM8">
+        <v>2.2105254003668001E-3</v>
+      </c>
+      <c r="AN8">
+        <v>2.17467111731847E-3</v>
+      </c>
+      <c r="AO8">
+        <v>2.1404681871085101E-3</v>
+      </c>
+      <c r="AP8">
+        <v>2.1077956748977601E-3</v>
+      </c>
+      <c r="AQ8">
+        <v>2.0765445227566301E-3</v>
+      </c>
+      <c r="AR8">
+        <v>2.0466162702752E-3</v>
+      </c>
+      <c r="AS8">
+        <v>2.0179214093921198E-3</v>
+      </c>
+      <c r="AT8">
+        <v>1.9903786943616E-3</v>
+      </c>
+      <c r="AU8">
+        <v>1.9639141592312898E-3</v>
+      </c>
+      <c r="AV8">
+        <v>1.9384601398201101E-3</v>
+      </c>
+      <c r="AW8">
+        <v>1.9139547084606101E-3</v>
+      </c>
+      <c r="AX8">
+        <v>1.8903412643275299E-3</v>
+      </c>
+      <c r="AY8">
+        <v>1.86756750393515E-3</v>
+      </c>
+      <c r="AZ8">
+        <v>1.84558541544459E-3</v>
+      </c>
+      <c r="BA8">
+        <v>1.8243507046454899E-3</v>
+      </c>
+      <c r="BB8">
+        <v>1.8038224362325801E-3</v>
+      </c>
+      <c r="BC8">
+        <v>1.78396272260884E-3</v>
+      </c>
+      <c r="BD8">
+        <v>1.7647364256959299E-3</v>
+      </c>
+      <c r="BE8">
+        <v>1.7461109023376099E-3</v>
+      </c>
+      <c r="BF8">
+        <v>1.7280558159055799E-3</v>
+      </c>
+      <c r="BG8">
+        <v>1.71054292945009E-3</v>
+      </c>
+      <c r="BH8">
+        <v>1.6935458787214E-3</v>
+      </c>
+      <c r="BI8">
+        <v>1.67704005611837E-3</v>
+      </c>
+      <c r="BJ8">
+        <v>1.66100245384848E-3</v>
+      </c>
+      <c r="BK8">
+        <v>1.64541153356678E-3</v>
+      </c>
+      <c r="BL8">
+        <v>1.6302471086859999E-3</v>
+      </c>
+      <c r="BM8">
+        <v>1.61549026621112E-3</v>
+      </c>
+      <c r="BN8">
+        <v>1.6011232280832199E-3</v>
+      </c>
+      <c r="BO8">
+        <v>1.5871292226841199E-3</v>
+      </c>
+      <c r="BP8">
+        <v>1.5734925003584399E-3</v>
+      </c>
+      <c r="BQ8">
+        <v>1.56019828134453E-3</v>
+      </c>
+      <c r="BR8">
+        <v>1.5472325309829199E-3</v>
+      </c>
+      <c r="BS8">
+        <v>1.53458201330379E-3</v>
+      </c>
+      <c r="BT8">
+        <v>1.5222343096791401E-3</v>
+      </c>
+      <c r="BU8">
+        <v>1.5101775658981399E-3</v>
+      </c>
+      <c r="BV8">
+        <v>1.4984005958518199E-3</v>
+      </c>
+      <c r="BW8">
+        <v>1.4868928772669601E-3</v>
+      </c>
+      <c r="BX8">
+        <v>1.47564429060289E-3</v>
+      </c>
+      <c r="BY8">
+        <v>1.4646453827885601E-3</v>
+      </c>
+      <c r="BZ8">
+        <v>1.45388705825701E-3</v>
+      </c>
+      <c r="CA8">
+        <v>1.4433607515894099E-3</v>
+      </c>
+      <c r="CB8">
+        <v>1.4330582798790801E-3</v>
+      </c>
+      <c r="CC8">
+        <v>1.4229718649687599E-3</v>
+      </c>
+      <c r="CD8">
+        <v>1.4130941088388699E-3</v>
+      </c>
+      <c r="CE8">
+        <v>1.40341794494292E-3</v>
+      </c>
+      <c r="CF8">
+        <v>1.39393665149131E-3</v>
+      </c>
+      <c r="CG8">
+        <v>1.38464380761392E-3</v>
+      </c>
+      <c r="CH8">
+        <v>1.37553327504218E-3</v>
+      </c>
+      <c r="CI8">
+        <v>1.36659922084411E-3</v>
+      </c>
+      <c r="CJ8">
+        <v>1.35783601092455E-3</v>
+      </c>
+      <c r="CK8">
+        <v>1.34923834950124E-3</v>
+      </c>
+      <c r="CL8">
+        <v>1.3408010529841201E-3</v>
+      </c>
+      <c r="CM8">
+        <v>1.3325192745525501E-3</v>
+      </c>
+      <c r="CN8">
+        <v>1.32438827907424E-3</v>
+      </c>
+      <c r="CO8">
+        <v>1.3164035747011799E-3</v>
+      </c>
+      <c r="CP8">
+        <v>1.3085608665565399E-3</v>
+      </c>
+      <c r="CQ8">
+        <v>1.3008559748455199E-3</v>
+      </c>
+      <c r="CR8">
+        <v>1.2932849701794401E-3</v>
+      </c>
+      <c r="CS8">
+        <v>1.28584400749885E-3</v>
+      </c>
+      <c r="CT8">
+        <v>1.27852941256287E-3</v>
+      </c>
+      <c r="CU8">
+        <v>1.2713377075916699E-3</v>
+      </c>
+      <c r="CV8">
+        <v>1.2642654572705299E-3</v>
+      </c>
+      <c r="CW8">
+        <v>1.25730941507475E-3</v>
+      </c>
+      <c r="CX8">
+        <v>1.2504664700487701E-3</v>
+      </c>
+      <c r="CY8">
+        <v>1.2437335677513901E-3</v>
+      </c>
+      <c r="CZ8">
+        <v>1.23710781235046E-3</v>
+      </c>
+      <c r="DA8">
+        <v>1.23058642233482E-3</v>
+      </c>
+      <c r="DB8">
+        <v>1.22416666626075E-3</v>
+      </c>
+      <c r="DC8">
+        <v>1.2178459462949601E-3</v>
+      </c>
+      <c r="DD8">
+        <v>1.2116217782805101E-3</v>
+      </c>
+      <c r="DE8">
+        <v>1.2054917055431601E-3</v>
+      </c>
+      <c r="DF8">
+        <v>1.1994533891988E-3</v>
+      </c>
+      <c r="DG8">
+        <v>1.19350459980378E-3</v>
+      </c>
+      <c r="DH8">
+        <v>1.1876431299850201E-3</v>
+      </c>
+      <c r="DI8">
+        <v>1.1818668666295001E-3</v>
+      </c>
+      <c r="DJ8">
+        <v>1.1761737847084701E-3</v>
+      </c>
+      <c r="DK8">
+        <v>1.1705619183811401E-3</v>
+      </c>
+      <c r="DL8">
+        <v>1.16502934319241E-3</v>
+      </c>
+      <c r="DM8">
+        <v>1.1595742152063901E-3</v>
+      </c>
+      <c r="DN8">
+        <v>1.1541947717242599E-3</v>
+      </c>
+      <c r="DO8">
+        <v>1.1488892679076799E-3</v>
+      </c>
+      <c r="DP8">
+        <v>1.1436560246681699E-3</v>
+      </c>
+      <c r="DQ8">
+        <v>1.13849342128093E-3</v>
+      </c>
+      <c r="DR8">
+        <v>1.1333999118238499E-3</v>
+      </c>
+      <c r="DS8">
+        <v>1.1283739491850899E-3</v>
+      </c>
+      <c r="DT8">
+        <v>1.1234140572478101E-3</v>
+      </c>
+      <c r="DU8">
+        <v>1.11851880499982E-3</v>
+      </c>
+      <c r="DV8">
+        <v>1.11368682632797E-3</v>
+      </c>
+      <c r="DW8">
+        <v>1.1089167520921699E-3</v>
+      </c>
+      <c r="DX8">
+        <v>1.10420727467134E-3</v>
+      </c>
+      <c r="DY8">
+        <v>1.09955712520095E-3</v>
+      </c>
+      <c r="DZ8">
+        <v>1.0949650871994599E-3</v>
+      </c>
+      <c r="EA8">
+        <v>1.0904299525802701E-3</v>
+      </c>
+      <c r="EB8">
+        <v>1.0859505540228001E-3</v>
+      </c>
+      <c r="EC8">
+        <v>1.0815257619777401E-3</v>
+      </c>
+      <c r="ED8">
+        <v>1.0771544848275901E-3</v>
+      </c>
+      <c r="EE8">
+        <v>1.0728356609298101E-3</v>
+      </c>
+      <c r="EF8">
+        <v>1.0685682400853401E-3</v>
+      </c>
+      <c r="EG8">
+        <v>1.06435121303074E-3</v>
+      </c>
+      <c r="EH8">
+        <v>1.06018359796897E-3</v>
+      </c>
+      <c r="EI8">
+        <v>1.0560644508346201E-3</v>
+      </c>
+      <c r="EJ8">
+        <v>1.0519928355592601E-3</v>
+      </c>
+      <c r="EK8">
+        <v>1.0479678418284101E-3</v>
+      </c>
+      <c r="EL8">
+        <v>1.0439885886032599E-3</v>
+      </c>
+      <c r="EM8">
+        <v>1.0400542179322899E-3</v>
+      </c>
+      <c r="EN8">
+        <v>1.0361639057847199E-3</v>
+      </c>
+      <c r="EO8">
+        <v>1.03231682928762E-3</v>
+      </c>
+      <c r="EP8">
+        <v>1.02851219200069E-3</v>
+      </c>
+      <c r="EQ8">
+        <v>1.0247492209360799E-3</v>
+      </c>
+      <c r="ER8">
+        <v>1.0210271626366601E-3</v>
+      </c>
+      <c r="ES8">
+        <v>1.01734529104868E-3</v>
+      </c>
+      <c r="ET8">
+        <v>1.01370288592337E-3</v>
+      </c>
+      <c r="EU8">
+        <v>1.01009924381049E-3</v>
+      </c>
+      <c r="EV8">
+        <v>1.0065336833413501E-3</v>
+      </c>
+      <c r="EW8">
+        <v>1.0030055397678901E-3</v>
+      </c>
+      <c r="EX8">
+        <v>9.9951416722227591E-4</v>
+      </c>
+      <c r="EY8">
+        <v>9.9605893896110502E-4</v>
+      </c>
+      <c r="EZ8">
+        <v>9.9263922765505195E-4</v>
+      </c>
+      <c r="FA8">
+        <v>9.8925443007254503E-4</v>
+      </c>
+      <c r="FB8">
+        <v>9.8590395720463001E-4</v>
+      </c>
+      <c r="FC8">
+        <v>9.825872338373729E-4</v>
+      </c>
+      <c r="FD8">
+        <v>9.7930370410025396E-4</v>
+      </c>
+      <c r="FE8">
+        <v>9.7605281778040203E-4</v>
+      </c>
+      <c r="FF8">
+        <v>9.7283403374720198E-4</v>
+      </c>
+      <c r="FG8">
+        <v>9.6964682800235397E-4</v>
+      </c>
+      <c r="FH8">
+        <v>9.66490688425292E-4</v>
+      </c>
+      <c r="FI8">
+        <v>9.6336511442976101E-4</v>
+      </c>
+      <c r="FJ8">
+        <v>9.6026962238850405E-4</v>
+      </c>
+      <c r="FK8">
+        <v>9.5720373177019295E-4</v>
+      </c>
+      <c r="FL8">
+        <v>9.5416697066953596E-4</v>
+      </c>
+      <c r="FM8">
+        <v>9.5115888144454703E-4</v>
+      </c>
+      <c r="FN8">
+        <v>9.4817901644122702E-4</v>
+      </c>
+      <c r="FO8">
+        <v>9.4522693771542405E-4</v>
+      </c>
+      <c r="FP8">
+        <v>9.4230221978492898E-4</v>
+      </c>
+      <c r="FQ8">
+        <v>9.3940444587236303E-4</v>
+      </c>
+      <c r="FR8">
+        <v>9.3653319980108196E-4</v>
+      </c>
+      <c r="FS8">
+        <v>9.3368807987374001E-4</v>
+      </c>
+      <c r="FT8">
+        <v>9.3086869284564203E-4</v>
+      </c>
+      <c r="FU8">
+        <v>9.2807465369771996E-4</v>
+      </c>
+      <c r="FV8">
+        <v>9.2530558541688605E-4</v>
+      </c>
+      <c r="FW8">
+        <v>9.2256112502526197E-4</v>
+      </c>
+      <c r="FX8">
+        <v>9.1984090604740703E-4</v>
+      </c>
+      <c r="FY8">
+        <v>9.1714457265436897E-4</v>
+      </c>
+      <c r="FZ8">
+        <v>9.1447177780234101E-4</v>
+      </c>
+      <c r="GA8">
+        <v>9.1182218145425403E-4</v>
+      </c>
+      <c r="GB8">
+        <v>9.0919545039630197E-4</v>
+      </c>
+      <c r="GC8">
+        <v>9.0659125805728604E-4</v>
+      </c>
+      <c r="GD8">
+        <v>9.0400929096904595E-4</v>
+      </c>
+      <c r="GE8">
+        <v>9.0144922887398196E-4</v>
+      </c>
+      <c r="GF8">
+        <v>8.9891076362892501E-4</v>
+      </c>
+      <c r="GG8">
+        <v>8.9639359329935105E-4</v>
+      </c>
+      <c r="GH8">
+        <v>8.9389742145114498E-4</v>
+      </c>
+      <c r="GI8">
+        <v>8.9142195666280896E-4</v>
+      </c>
+      <c r="GJ8">
+        <v>8.8896691172197996E-4</v>
+      </c>
+      <c r="GK8">
+        <v>8.8653200718689603E-4</v>
+      </c>
+      <c r="GL8">
+        <v>8.8411695517808398E-4</v>
+      </c>
+      <c r="GM8">
+        <v>8.8172146566808701E-4</v>
+      </c>
+      <c r="GN8">
+        <v>8.7934523679877603E-4</v>
+      </c>
+      <c r="GO8">
+        <v>8.7698793726910301E-4</v>
+      </c>
+      <c r="GP8">
+        <v>8.7464917637287498E-4</v>
+      </c>
+      <c r="GQ8">
+        <v>8.7232844892708801E-4</v>
+      </c>
+      <c r="GR8">
+        <v>8.7002503808573299E-4</v>
+      </c>
+      <c r="GS8">
+        <v>8.6773782570736299E-4</v>
+      </c>
+      <c r="GT8">
+        <v>8.6546496286289004E-4</v>
+      </c>
+      <c r="GU8">
+        <v>8.6320328383200596E-4</v>
+      </c>
+      <c r="GV8">
+        <v>8.6094724723131402E-4</v>
+      </c>
+      <c r="GW8">
+        <v>8.5868707999338899E-4</v>
+      </c>
+      <c r="GX8">
+        <v>8.5640544558928202E-4</v>
+      </c>
+      <c r="GY8">
+        <v>8.5407173626428302E-4</v>
+      </c>
+      <c r="GZ8">
+        <v>8.5163199998818204E-4</v>
+      </c>
+      <c r="HA8">
+        <v>8.4899161964793897E-4</v>
+      </c>
+      <c r="HB8">
+        <v>8.4598551564280097E-4</v>
+      </c>
+      <c r="HC8">
+        <v>8.42327220550535E-4</v>
+      </c>
+      <c r="HD8">
+        <v>8.3752235765692799E-4</v>
+      </c>
+      <c r="HE8">
+        <v>8.3072245095081997E-4</v>
+      </c>
+      <c r="HF8">
+        <v>8.2047906961108495E-4</v>
+      </c>
+      <c r="HG8">
+        <v>8.0433195035808599E-4</v>
+      </c>
+      <c r="HH8">
+        <v>7.7812078808835096E-4</v>
+      </c>
+      <c r="HI8">
+        <v>7.3483661247269604E-4</v>
+      </c>
+      <c r="HJ8">
+        <v>6.6270414934164004E-4</v>
+      </c>
+      <c r="HK8">
+        <v>5.4197560548665397E-4</v>
+      </c>
+      <c r="HL8">
+        <v>3.39558926127903E-4</v>
+      </c>
+      <c r="HM8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:1918" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>14</v>
       </c>
+      <c r="B9" s="20">
+        <v>0</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0.172266313932981</v>
+      </c>
+      <c r="D9">
+        <v>6.59140828438394E-2</v>
+      </c>
+      <c r="E9">
+        <v>4.22264892985285E-2</v>
+      </c>
+      <c r="F9">
+        <v>3.2544804898437002E-2</v>
+      </c>
+      <c r="G9">
+        <v>2.69838897502028E-2</v>
+      </c>
+      <c r="H9">
+        <v>2.3398528599531399E-2</v>
+      </c>
+      <c r="I9">
+        <v>2.0877095946612599E-2</v>
+      </c>
+      <c r="J9">
+        <v>1.89925819397837E-2</v>
+      </c>
+      <c r="K9">
+        <v>1.75207268802305E-2</v>
+      </c>
+      <c r="L9">
+        <v>1.6332604832589501E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.53487160915353E-2</v>
+      </c>
+      <c r="N9">
+        <v>1.4517258084879499E-2</v>
+      </c>
+      <c r="O9">
+        <v>1.3808305557022E-2</v>
+      </c>
+      <c r="P9">
+        <v>1.3194149714410399E-2</v>
+      </c>
+      <c r="Q9">
+        <v>1.2652442884578801E-2</v>
+      </c>
+      <c r="R9">
+        <v>1.21700247229099E-2</v>
+      </c>
+      <c r="S9">
+        <v>1.1736838028728399E-2</v>
+      </c>
+      <c r="T9">
+        <v>1.1345051356037601E-2</v>
+      </c>
+      <c r="U9">
+        <v>1.0993170598587799E-2</v>
+      </c>
+      <c r="V9">
+        <v>1.0671540252310501E-2</v>
+      </c>
+      <c r="W9">
+        <v>1.03753658129263E-2</v>
+      </c>
+      <c r="X9">
+        <v>1.01014450543815E-2</v>
+      </c>
+      <c r="Y9">
+        <v>9.8471117530649407E-3</v>
+      </c>
+      <c r="Z9">
+        <v>9.6127788126375204E-3</v>
+      </c>
+      <c r="AA9">
+        <v>9.39468082708389E-3</v>
+      </c>
+      <c r="AB9">
+        <v>9.1899948270672202E-3</v>
+      </c>
+      <c r="AC9">
+        <v>8.9973894569620808E-3</v>
+      </c>
+      <c r="AD9">
+        <v>8.8157113627837808E-3</v>
+      </c>
+      <c r="AE9">
+        <v>8.6460302371918398E-3</v>
+      </c>
+      <c r="AF9">
+        <v>8.4859081656699503E-3</v>
+      </c>
+      <c r="AG9">
+        <v>8.3337919905074904E-3</v>
+      </c>
+      <c r="AH9">
+        <v>8.1890286663180208E-3</v>
+      </c>
+      <c r="AI9">
+        <v>8.0510374859281905E-3</v>
+      </c>
+      <c r="AJ9">
+        <v>7.9212166315219996E-3</v>
+      </c>
+      <c r="AK9">
+        <v>7.7972950654792697E-3</v>
+      </c>
+      <c r="AL9">
+        <v>7.67857019579109E-3</v>
+      </c>
+      <c r="AM9">
+        <v>7.5646837015745502E-3</v>
+      </c>
+      <c r="AN9">
+        <v>7.4554319472818001E-3</v>
+      </c>
+      <c r="AO9">
+        <v>7.3520484072763402E-3</v>
+      </c>
+      <c r="AP9">
+        <v>7.25247948101567E-3</v>
+      </c>
+      <c r="AQ9">
+        <v>7.15649257023699E-3</v>
+      </c>
+      <c r="AR9">
+        <v>7.0638745212940404E-3</v>
+      </c>
+      <c r="AS9">
+        <v>6.9748863018852499E-3</v>
+      </c>
+      <c r="AT9">
+        <v>6.88988388210331E-3</v>
+      </c>
+      <c r="AU9">
+        <v>6.8076098142582399E-3</v>
+      </c>
+      <c r="AV9">
+        <v>6.7279186753221596E-3</v>
+      </c>
+      <c r="AW9">
+        <v>6.6506757052818104E-3</v>
+      </c>
+      <c r="AX9">
+        <v>6.5764726964054297E-3</v>
+      </c>
+      <c r="AY9">
+        <v>6.5049731323119902E-3</v>
+      </c>
+      <c r="AZ9">
+        <v>6.4354981220808303E-3</v>
+      </c>
+      <c r="BA9">
+        <v>6.3679521056164102E-3</v>
+      </c>
+      <c r="BB9">
+        <v>6.3022457435569102E-3</v>
+      </c>
+      <c r="BC9">
+        <v>6.2392136190001501E-3</v>
+      </c>
+      <c r="BD9">
+        <v>6.1779751905831296E-3</v>
+      </c>
+      <c r="BE9">
+        <v>6.11828368478859E-3</v>
+      </c>
+      <c r="BF9">
+        <v>6.0600737690149004E-3</v>
+      </c>
+      <c r="BG9">
+        <v>6.0034157350510597E-3</v>
+      </c>
+      <c r="BH9">
+        <v>5.94893072607425E-3</v>
+      </c>
+      <c r="BI9">
+        <v>5.89570492374469E-3</v>
+      </c>
+      <c r="BJ9">
+        <v>5.84368958886833E-3</v>
+      </c>
+      <c r="BK9">
+        <v>5.7928385910557996E-3</v>
+      </c>
+      <c r="BL9">
+        <v>5.7434827122245903E-3</v>
+      </c>
+      <c r="BM9">
+        <v>5.6956536067559096E-3</v>
+      </c>
+      <c r="BN9">
+        <v>5.6488257526035304E-3</v>
+      </c>
+      <c r="BO9">
+        <v>5.6029639873970997E-3</v>
+      </c>
+      <c r="BP9">
+        <v>5.5580348575975302E-3</v>
+      </c>
+      <c r="BQ9">
+        <v>5.5145737389500297E-3</v>
+      </c>
+      <c r="BR9">
+        <v>5.4721406262986001E-3</v>
+      </c>
+      <c r="BS9">
+        <v>5.4305174610766302E-3</v>
+      </c>
+      <c r="BT9">
+        <v>5.3896782805520002E-3</v>
+      </c>
+      <c r="BU9">
+        <v>5.3496474938795396E-3</v>
+      </c>
+      <c r="BV9">
+        <v>5.3109755694617199E-3</v>
+      </c>
+      <c r="BW9">
+        <v>5.2729888909582301E-3</v>
+      </c>
+      <c r="BX9">
+        <v>5.2356670684686E-3</v>
+      </c>
+      <c r="BY9">
+        <v>5.1989905510507603E-3</v>
+      </c>
+      <c r="BZ9">
+        <v>5.16318557270567E-3</v>
+      </c>
+      <c r="CA9">
+        <v>5.1283461058601702E-3</v>
+      </c>
+      <c r="CB9">
+        <v>5.0940748792826099E-3</v>
+      </c>
+      <c r="CC9">
+        <v>5.0603563312685796E-3</v>
+      </c>
+      <c r="CD9">
+        <v>5.0271754887959898E-3</v>
+      </c>
+      <c r="CE9">
+        <v>4.9949240459830398E-3</v>
+      </c>
+      <c r="CF9">
+        <v>4.9633186475537298E-3</v>
+      </c>
+      <c r="CG9">
+        <v>4.9321897975353503E-3</v>
+      </c>
+      <c r="CH9">
+        <v>4.9015254398768896E-3</v>
+      </c>
+      <c r="CI9">
+        <v>4.8713437684651199E-3</v>
+      </c>
+      <c r="CJ9">
+        <v>4.8420838285536099E-3</v>
+      </c>
+      <c r="CK9">
+        <v>4.81323728119164E-3</v>
+      </c>
+      <c r="CL9">
+        <v>4.7847943457429301E-3</v>
+      </c>
+      <c r="CM9">
+        <v>4.75674555964867E-3</v>
+      </c>
+      <c r="CN9">
+        <v>4.7292686019071604E-3</v>
+      </c>
+      <c r="CO9">
+        <v>4.70244550977242E-3</v>
+      </c>
+      <c r="CP9">
+        <v>4.6759749886142298E-3</v>
+      </c>
+      <c r="CQ9">
+        <v>4.6498492933162196E-3</v>
+      </c>
+      <c r="CR9">
+        <v>4.6240609118351397E-3</v>
+      </c>
+      <c r="CS9">
+        <v>4.5989222587217099E-3</v>
+      </c>
+      <c r="CT9">
+        <v>4.5742123699522904E-3</v>
+      </c>
+      <c r="CU9">
+        <v>4.5498055659874701E-3</v>
+      </c>
+      <c r="CV9">
+        <v>4.5256956504867597E-3</v>
+      </c>
+      <c r="CW9">
+        <v>4.5019060432250398E-3</v>
+      </c>
+      <c r="CX9">
+        <v>4.47877538346455E-3</v>
+      </c>
+      <c r="CY9">
+        <v>4.4559122494927002E-3</v>
+      </c>
+      <c r="CZ9">
+        <v>4.4333115055807297E-3</v>
+      </c>
+      <c r="DA9">
+        <v>4.4109681495511496E-3</v>
+      </c>
+      <c r="DB9">
+        <v>4.3890346697998701E-3</v>
+      </c>
+      <c r="DC9">
+        <v>4.36756389234966E-3</v>
+      </c>
+      <c r="DD9">
+        <v>4.3463258891704003E-3</v>
+      </c>
+      <c r="DE9">
+        <v>4.3253164893036098E-3</v>
+      </c>
+      <c r="DF9">
+        <v>4.3045316223090701E-3</v>
+      </c>
+      <c r="DG9">
+        <v>4.2842352661846602E-3</v>
+      </c>
+      <c r="DH9">
+        <v>4.2642326223148999E-3</v>
+      </c>
+      <c r="DI9">
+        <v>4.2444336990704401E-3</v>
+      </c>
+      <c r="DJ9">
+        <v>4.2248350846150803E-3</v>
+      </c>
+      <c r="DK9">
+        <v>4.2054682074166997E-3</v>
+      </c>
+      <c r="DL9">
+        <v>4.18658952558126E-3</v>
+      </c>
+      <c r="DM9">
+        <v>4.1678929479930403E-3</v>
+      </c>
+      <c r="DN9">
+        <v>4.1493756065842397E-3</v>
+      </c>
+      <c r="DO9">
+        <v>4.1310346927218803E-3</v>
+      </c>
+      <c r="DP9">
+        <v>4.1130083852272403E-3</v>
+      </c>
+      <c r="DQ9">
+        <v>4.0953190074048797E-3</v>
+      </c>
+      <c r="DR9">
+        <v>4.0777904520499404E-3</v>
+      </c>
+      <c r="DS9">
+        <v>4.0604203487766303E-3</v>
+      </c>
+      <c r="DT9">
+        <v>4.0432063725418304E-3</v>
+      </c>
+      <c r="DU9">
+        <v>4.0263805031706098E-3</v>
+      </c>
+      <c r="DV9">
+        <v>4.0097588951083498E-3</v>
+      </c>
+      <c r="DW9">
+        <v>3.9932799476506296E-3</v>
+      </c>
+      <c r="DX9">
+        <v>3.9769416919188498E-3</v>
+      </c>
+      <c r="DY9">
+        <v>3.9607835429229504E-3</v>
+      </c>
+      <c r="DZ9">
+        <v>3.9449961691108296E-3</v>
+      </c>
+      <c r="EA9">
+        <v>3.9293375299243203E-3</v>
+      </c>
+      <c r="EB9">
+        <v>3.9138059558927202E-3</v>
+      </c>
+      <c r="EC9">
+        <v>3.89839980448884E-3</v>
+      </c>
+      <c r="ED9">
+        <v>3.8832484471655201E-3</v>
+      </c>
+      <c r="EE9">
+        <v>3.8683468651152702E-3</v>
+      </c>
+      <c r="EF9">
+        <v>3.85356027613878E-3</v>
+      </c>
+      <c r="EG9">
+        <v>3.83888728425628E-3</v>
+      </c>
+      <c r="EH9">
+        <v>3.8243265140232201E-3</v>
+      </c>
+      <c r="EI9">
+        <v>3.8100874594054301E-3</v>
+      </c>
+      <c r="EJ9">
+        <v>3.7959905290310802E-3</v>
+      </c>
+      <c r="EK9">
+        <v>3.7819966747798198E-3</v>
+      </c>
+      <c r="EL9">
+        <v>3.7681047255605201E-3</v>
+      </c>
+      <c r="EM9">
+        <v>3.75436119923925E-3</v>
+      </c>
+      <c r="EN9">
+        <v>3.7409041517944999E-3</v>
+      </c>
+      <c r="EO9">
+        <v>3.72754079170356E-3</v>
+      </c>
+      <c r="EP9">
+        <v>3.7142701220619799E-3</v>
+      </c>
+      <c r="EQ9">
+        <v>3.7010911577805001E-3</v>
+      </c>
+      <c r="ER9">
+        <v>3.6881274307894998E-3</v>
+      </c>
+      <c r="ES9">
+        <v>3.6753506320513101E-3</v>
+      </c>
+      <c r="ET9">
+        <v>3.6626582703478401E-3</v>
+      </c>
+      <c r="EU9">
+        <v>3.6500495064692401E-3</v>
+      </c>
+      <c r="EV9">
+        <v>3.63752350998811E-3</v>
+      </c>
+      <c r="EW9">
+        <v>3.62527316625166E-3</v>
+      </c>
+      <c r="EX9">
+        <v>3.61312016238075E-3</v>
+      </c>
+      <c r="EY9">
+        <v>3.6010434694765999E-3</v>
+      </c>
+      <c r="EZ9">
+        <v>3.5890423799259598E-3</v>
+      </c>
+      <c r="FA9">
+        <v>3.5771694490927498E-3</v>
+      </c>
+      <c r="FB9">
+        <v>3.5655204044145699E-3</v>
+      </c>
+      <c r="FC9">
+        <v>3.55394110532645E-3</v>
+      </c>
+      <c r="FD9">
+        <v>3.5424309500362099E-3</v>
+      </c>
+      <c r="FE9">
+        <v>3.5309893412495898E-3</v>
+      </c>
+      <c r="FF9">
+        <v>3.51973565921903E-3</v>
+      </c>
+      <c r="FG9">
+        <v>3.5086221383530099E-3</v>
+      </c>
+      <c r="FH9">
+        <v>3.4975719235849799E-3</v>
+      </c>
+      <c r="FI9">
+        <v>3.4865845074510599E-3</v>
+      </c>
+      <c r="FJ9">
+        <v>3.47565938552631E-3</v>
+      </c>
+      <c r="FK9">
+        <v>3.4649766659013599E-3</v>
+      </c>
+      <c r="FL9">
+        <v>3.4543580501038501E-3</v>
+      </c>
+      <c r="FM9">
+        <v>3.44379702361086E-3</v>
+      </c>
+      <c r="FN9">
+        <v>3.4332931585781398E-3</v>
+      </c>
+      <c r="FO9">
+        <v>3.4229040363306798E-3</v>
+      </c>
+      <c r="FP9">
+        <v>3.4126910460901502E-3</v>
+      </c>
+      <c r="FQ9">
+        <v>3.4025309143320701E-3</v>
+      </c>
+      <c r="FR9">
+        <v>3.39242327975597E-3</v>
+      </c>
+      <c r="FS9">
+        <v>3.3823677819612699E-3</v>
+      </c>
+      <c r="FT9">
+        <v>3.3724806540463598E-3</v>
+      </c>
+      <c r="FU9">
+        <v>3.3626979902519E-3</v>
+      </c>
+      <c r="FV9">
+        <v>3.35296357702596E-3</v>
+      </c>
+      <c r="FW9">
+        <v>3.3432771110766101E-3</v>
+      </c>
+      <c r="FX9">
+        <v>3.3336438193917201E-3</v>
+      </c>
+      <c r="FY9">
+        <v>3.3242170547128202E-3</v>
+      </c>
+      <c r="FZ9">
+        <v>3.3148346672817299E-3</v>
+      </c>
+      <c r="GA9">
+        <v>3.30549640363919E-3</v>
+      </c>
+      <c r="GB9">
+        <v>3.2962020098820199E-3</v>
+      </c>
+      <c r="GC9">
+        <v>3.2870132069920399E-3</v>
+      </c>
+      <c r="GD9">
+        <v>3.2779632841416898E-3</v>
+      </c>
+      <c r="GE9">
+        <v>3.2689539897234098E-3</v>
+      </c>
+      <c r="GF9">
+        <v>3.2599851128498102E-3</v>
+      </c>
+      <c r="GG9">
+        <v>3.25105644178159E-3</v>
+      </c>
+      <c r="GH9">
+        <v>3.2422816853015599E-3</v>
+      </c>
+      <c r="GI9">
+        <v>3.2335835699941399E-3</v>
+      </c>
+      <c r="GJ9">
+        <v>3.2249227093638501E-3</v>
+      </c>
+      <c r="GK9">
+        <v>3.2162989289161999E-3</v>
+      </c>
+      <c r="GL9">
+        <v>3.2077271285550699E-3</v>
+      </c>
+      <c r="GM9">
+        <v>3.1993237093577301E-3</v>
+      </c>
+      <c r="GN9">
+        <v>3.1909546427773298E-3</v>
+      </c>
+      <c r="GO9">
+        <v>3.1826197869961998E-3</v>
+      </c>
+      <c r="GP9">
+        <v>3.1743189986988599E-3</v>
+      </c>
+      <c r="GQ9">
+        <v>3.1661173877349899E-3</v>
+      </c>
+      <c r="GR9">
+        <v>3.1580250542014199E-3</v>
+      </c>
+      <c r="GS9">
+        <v>3.1499642935522401E-3</v>
+      </c>
+      <c r="GT9">
+        <v>3.1419349908966801E-3</v>
+      </c>
+      <c r="GU9">
+        <v>3.13393702968309E-3</v>
+      </c>
+      <c r="GV9">
+        <v>3.1260819958022802E-3</v>
+      </c>
+      <c r="GW9">
+        <v>3.1182815355671198E-3</v>
+      </c>
+      <c r="GX9">
+        <v>3.1105101299007602E-3</v>
+      </c>
+      <c r="GY9">
+        <v>3.1027676870390899E-3</v>
+      </c>
+      <c r="GZ9">
+        <v>3.0950770857709098E-3</v>
+      </c>
+      <c r="HA9">
+        <v>3.08752407531372E-3</v>
+      </c>
+      <c r="HB9">
+        <v>3.0799979029439602E-3</v>
+      </c>
+      <c r="HC9">
+        <v>3.07249849873065E-3</v>
+      </c>
+      <c r="HD9">
+        <v>3.0650257908007099E-3</v>
+      </c>
+      <c r="HE9">
+        <v>3.0576476513169402E-3</v>
+      </c>
+      <c r="HF9">
+        <v>3.0503548943663999E-3</v>
+      </c>
+      <c r="HG9">
+        <v>3.0430868782176002E-3</v>
+      </c>
+      <c r="HH9">
+        <v>3.0358435501064598E-3</v>
+      </c>
+      <c r="HI9">
+        <v>3.0286248552880198E-3</v>
+      </c>
+      <c r="HJ9">
+        <v>3.0215405255306299E-3</v>
+      </c>
+      <c r="HK9">
+        <v>3.01449300671129E-3</v>
+      </c>
+      <c r="HL9">
+        <v>3.0074683177948201E-3</v>
+      </c>
+      <c r="HM9">
+        <v>3.0004664207945401E-3</v>
+      </c>
+      <c r="HN9">
+        <v>2.9935168209298999E-3</v>
+      </c>
+      <c r="HO9">
+        <v>2.9866796062152602E-3</v>
+      </c>
+      <c r="HP9">
+        <v>2.9798635002663298E-3</v>
+      </c>
+      <c r="HQ9">
+        <v>2.9730684798948202E-3</v>
+      </c>
+      <c r="HR9">
+        <v>2.9662945198420201E-3</v>
+      </c>
+      <c r="HS9">
+        <v>2.9596117348946399E-3</v>
+      </c>
+      <c r="HT9">
+        <v>2.95299478520638E-3</v>
+      </c>
+      <c r="HU9">
+        <v>2.94639733824177E-3</v>
+      </c>
+      <c r="HV9">
+        <v>2.9398193817556598E-3</v>
+      </c>
+      <c r="HW9">
+        <v>2.93326090145538E-3</v>
+      </c>
+      <c r="HX9">
+        <v>2.9268299620084002E-3</v>
+      </c>
+      <c r="HY9">
+        <v>2.9204213547441402E-3</v>
+      </c>
+      <c r="HZ9">
+        <v>2.91403077968515E-3</v>
+      </c>
+      <c r="IA9">
+        <v>2.9076582340006301E-3</v>
+      </c>
+      <c r="IB9">
+        <v>2.9013387591691501E-3</v>
+      </c>
+      <c r="IC9">
+        <v>2.89511078351708E-3</v>
+      </c>
+      <c r="ID9">
+        <v>2.88889948415169E-3</v>
+      </c>
+      <c r="IE9">
+        <v>2.8827048683748801E-3</v>
+      </c>
+      <c r="IF9">
+        <v>2.87652694144997E-3</v>
+      </c>
+      <c r="IG9">
+        <v>2.8704376304300198E-3</v>
+      </c>
+      <c r="IH9">
+        <v>2.8643979784161201E-3</v>
+      </c>
+      <c r="II9">
+        <v>2.8583737568086899E-3</v>
+      </c>
+      <c r="IJ9">
+        <v>2.8523649788638099E-3</v>
+      </c>
+      <c r="IK9">
+        <v>2.84637551344601E-3</v>
+      </c>
+      <c r="IL9">
+        <v>2.8405002869912798E-3</v>
+      </c>
+      <c r="IM9">
+        <v>2.8346391902567898E-3</v>
+      </c>
+      <c r="IN9">
+        <v>2.8287917558849798E-3</v>
+      </c>
+      <c r="IO9">
+        <v>2.8229557541477601E-3</v>
+      </c>
+      <c r="IP9">
+        <v>2.8171209855910998E-3</v>
+      </c>
+      <c r="IQ9">
+        <v>2.8060508177596799E-3</v>
+      </c>
+      <c r="IR9">
+        <v>2.7866201507367998E-3</v>
+      </c>
+      <c r="IS9">
+        <v>2.7582037842152499E-3</v>
+      </c>
+      <c r="IT9">
+        <v>2.7176353370453399E-3</v>
+      </c>
+      <c r="IU9">
+        <v>2.6506433698732998E-3</v>
+      </c>
+      <c r="IV9">
+        <v>2.4953411428118599E-3</v>
+      </c>
+      <c r="IW9">
+        <v>1.9870007720069098E-3</v>
+      </c>
+      <c r="IX9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:1918" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>16</v>
+      </c>
+      <c r="B10" s="20">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.184571050642479</v>
+      </c>
+      <c r="D10">
+        <v>7.1543922115304096E-2</v>
+      </c>
+      <c r="E10">
+        <v>4.4684119584174599E-2</v>
+      </c>
+      <c r="F10">
+        <v>3.3742937401472703E-2</v>
+      </c>
+      <c r="G10">
+        <v>2.7606358630125501E-2</v>
+      </c>
+      <c r="H10">
+        <v>2.38387372499217E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.1161502531711E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.9166510613328299E-2</v>
+      </c>
+      <c r="K10">
+        <v>1.7636075593076301E-2</v>
+      </c>
+      <c r="L10">
+        <v>1.6411278778741701E-2</v>
+      </c>
+      <c r="M10">
+        <v>1.53985002127702E-2</v>
+      </c>
+      <c r="N10">
+        <v>1.4545026913914801E-2</v>
+      </c>
+      <c r="O10">
+        <v>1.3814274078386099E-2</v>
+      </c>
+      <c r="P10">
+        <v>1.3180138977289599E-2</v>
+      </c>
+      <c r="Q10">
+        <v>1.26235201495429E-2</v>
+      </c>
+      <c r="R10">
+        <v>1.21333794672514E-2</v>
+      </c>
+      <c r="S10">
+        <v>1.1695951986995599E-2</v>
+      </c>
+      <c r="T10">
+        <v>1.1301412942920299E-2</v>
+      </c>
+      <c r="U10">
+        <v>1.09433140047238E-2</v>
+      </c>
+      <c r="V10">
+        <v>1.0616464630022899E-2</v>
+      </c>
+      <c r="W10">
+        <v>1.03166381443636E-2</v>
+      </c>
+      <c r="X10">
+        <v>1.0040356360168499E-2</v>
+      </c>
+      <c r="Y10">
+        <v>9.7847294622601007E-3</v>
+      </c>
+      <c r="Z10">
+        <v>9.5473353677271201E-3</v>
+      </c>
+      <c r="AA10">
+        <v>9.3261276843734798E-3</v>
+      </c>
+      <c r="AB10">
+        <v>9.1193646683579606E-3</v>
+      </c>
+      <c r="AC10">
+        <v>8.9265265923972308E-3</v>
+      </c>
+      <c r="AD10">
+        <v>8.7455759841661602E-3</v>
+      </c>
+      <c r="AE10">
+        <v>8.57501533044807E-3</v>
+      </c>
+      <c r="AF10">
+        <v>8.4138960244846597E-3</v>
+      </c>
+      <c r="AG10">
+        <v>8.2613853426906202E-3</v>
+      </c>
+      <c r="AH10">
+        <v>8.1167490131093204E-3</v>
+      </c>
+      <c r="AI10">
+        <v>7.9793368585071994E-3</v>
+      </c>
+      <c r="AJ10">
+        <v>7.8485708983499995E-3</v>
+      </c>
+      <c r="AK10">
+        <v>7.7239354307602603E-3</v>
+      </c>
+      <c r="AL10">
+        <v>7.6049687192270001E-3</v>
+      </c>
+      <c r="AM10">
+        <v>7.4912559879876002E-3</v>
+      </c>
+      <c r="AN10">
+        <v>7.3824234908830104E-3</v>
+      </c>
+      <c r="AO10">
+        <v>7.2781334656528704E-3</v>
+      </c>
+      <c r="AP10">
+        <v>7.1783698889190404E-3</v>
+      </c>
+      <c r="AQ10">
+        <v>7.0828591510521503E-3</v>
+      </c>
+      <c r="AR10">
+        <v>6.9910041357364103E-3</v>
+      </c>
+      <c r="AS10">
+        <v>6.90257851498803E-3</v>
+      </c>
+      <c r="AT10">
+        <v>6.8173749924682796E-3</v>
+      </c>
+      <c r="AU10">
+        <v>6.7352033056997098E-3</v>
+      </c>
+      <c r="AV10">
+        <v>6.6558884773360496E-3</v>
+      </c>
+      <c r="AW10">
+        <v>6.5792692798080201E-3</v>
+      </c>
+      <c r="AX10">
+        <v>6.5051968834046302E-3</v>
+      </c>
+      <c r="AY10">
+        <v>6.4335336625688296E-3</v>
+      </c>
+      <c r="AZ10">
+        <v>6.3641521390848596E-3</v>
+      </c>
+      <c r="BA10">
+        <v>6.2969340440671203E-3</v>
+      </c>
+      <c r="BB10">
+        <v>6.2317694833514403E-3</v>
+      </c>
+      <c r="BC10">
+        <v>6.1685561931379401E-3</v>
+      </c>
+      <c r="BD10">
+        <v>6.1072895514959697E-3</v>
+      </c>
+      <c r="BE10">
+        <v>6.04805060231298E-3</v>
+      </c>
+      <c r="BF10">
+        <v>5.9904744006102897E-3</v>
+      </c>
+      <c r="BG10">
+        <v>5.9344847586541303E-3</v>
+      </c>
+      <c r="BH10">
+        <v>5.8800102685444399E-3</v>
+      </c>
+      <c r="BI10">
+        <v>5.8269839250544202E-3</v>
+      </c>
+      <c r="BJ10">
+        <v>5.7753427840640196E-3</v>
+      </c>
+      <c r="BK10">
+        <v>5.7250276527014204E-3</v>
+      </c>
+      <c r="BL10">
+        <v>5.6759828077858803E-3</v>
+      </c>
+      <c r="BM10">
+        <v>5.6281557395788896E-3</v>
+      </c>
+      <c r="BN10">
+        <v>5.5814969182086498E-3</v>
+      </c>
+      <c r="BO10">
+        <v>5.5359595804431398E-3</v>
+      </c>
+      <c r="BP10">
+        <v>5.4914995347566898E-3</v>
+      </c>
+      <c r="BQ10">
+        <v>5.4480749828701696E-3</v>
+      </c>
+      <c r="BR10">
+        <v>5.4056463561496298E-3</v>
+      </c>
+      <c r="BS10">
+        <v>5.3643210563808002E-3</v>
+      </c>
+      <c r="BT10">
+        <v>5.3240060149163399E-3</v>
+      </c>
+      <c r="BU10">
+        <v>5.2845693381617098E-3</v>
+      </c>
+      <c r="BV10">
+        <v>5.24597960287499E-3</v>
+      </c>
+      <c r="BW10">
+        <v>5.20820693267471E-3</v>
+      </c>
+      <c r="BX10">
+        <v>5.1712229018218399E-3</v>
+      </c>
+      <c r="BY10">
+        <v>5.1350004461915601E-3</v>
+      </c>
+      <c r="BZ10">
+        <v>5.0995137808107598E-3</v>
+      </c>
+      <c r="CA10">
+        <v>5.0647383233985502E-3</v>
+      </c>
+      <c r="CB10">
+        <v>5.0306506234017298E-3</v>
+      </c>
+      <c r="CC10">
+        <v>4.9972282960662204E-3</v>
+      </c>
+      <c r="CD10">
+        <v>4.9644499611285701E-3</v>
+      </c>
+      <c r="CE10">
+        <v>4.9322951857511598E-3</v>
+      </c>
+      <c r="CF10">
+        <v>4.9007444313590798E-3</v>
+      </c>
+      <c r="CG10">
+        <v>4.8697790040682903E-3</v>
+      </c>
+      <c r="CH10">
+        <v>4.8395091613101402E-3</v>
+      </c>
+      <c r="CI10">
+        <v>4.8098304494338202E-3</v>
+      </c>
+      <c r="CJ10">
+        <v>4.7806792219003396E-3</v>
+      </c>
+      <c r="CK10">
+        <v>4.75204002577487E-3</v>
+      </c>
+      <c r="CL10">
+        <v>4.7238980329962696E-3</v>
+      </c>
+      <c r="CM10">
+        <v>4.6962390083553299E-3</v>
+      </c>
+      <c r="CN10">
+        <v>4.6690492794497097E-3</v>
+      </c>
+      <c r="CO10">
+        <v>4.6423157084736601E-3</v>
+      </c>
+      <c r="CP10">
+        <v>4.6160256657117697E-3</v>
+      </c>
+      <c r="CQ10">
+        <v>4.5901670046169197E-3</v>
+      </c>
+      <c r="CR10">
+        <v>4.56472803836211E-3</v>
+      </c>
+      <c r="CS10">
+        <v>4.53969751776439E-3</v>
+      </c>
+      <c r="CT10">
+        <v>4.5150646104874098E-3</v>
+      </c>
+      <c r="CU10">
+        <v>4.4908188814362397E-3</v>
+      </c>
+      <c r="CV10">
+        <v>4.4669502742645502E-3</v>
+      </c>
+      <c r="CW10">
+        <v>4.4435486244007302E-3</v>
+      </c>
+      <c r="CX10">
+        <v>4.4205359173916997E-3</v>
+      </c>
+      <c r="CY10">
+        <v>4.3978681179073298E-3</v>
+      </c>
+      <c r="CZ10">
+        <v>4.3755366815432699E-3</v>
+      </c>
+      <c r="DA10">
+        <v>4.3535333566897001E-3</v>
+      </c>
+      <c r="DB10">
+        <v>4.33185017179126E-3</v>
+      </c>
+      <c r="DC10">
+        <v>4.3104794232761501E-3</v>
+      </c>
+      <c r="DD10">
+        <v>4.2894136641131696E-3</v>
+      </c>
+      <c r="DE10">
+        <v>4.2686456929587604E-3</v>
+      </c>
+      <c r="DF10">
+        <v>4.24816854385833E-3</v>
+      </c>
+      <c r="DG10">
+        <v>4.2279754764690501E-3</v>
+      </c>
+      <c r="DH10">
+        <v>4.2080599667730497E-3</v>
+      </c>
+      <c r="DI10">
+        <v>4.1884156982525097E-3</v>
+      </c>
+      <c r="DJ10">
+        <v>4.16903655349961E-3</v>
+      </c>
+      <c r="DK10">
+        <v>4.1499166062365003E-3</v>
+      </c>
+      <c r="DL10">
+        <v>4.1311223754137401E-3</v>
+      </c>
+      <c r="DM10">
+        <v>4.1126084805654098E-3</v>
+      </c>
+      <c r="DN10">
+        <v>4.0943341994428501E-3</v>
+      </c>
+      <c r="DO10">
+        <v>4.0762943951630302E-3</v>
+      </c>
+      <c r="DP10">
+        <v>4.05848408340593E-3</v>
+      </c>
+      <c r="DQ10">
+        <v>4.0408984266531297E-3</v>
+      </c>
+      <c r="DR10">
+        <v>4.0235327286894697E-3</v>
+      </c>
+      <c r="DS10">
+        <v>4.0063824293535399E-3</v>
+      </c>
+      <c r="DT10">
+        <v>3.9894430995239096E-3</v>
+      </c>
+      <c r="DU10">
+        <v>3.97271043632875E-3</v>
+      </c>
+      <c r="DV10">
+        <v>3.9561802585672103E-3</v>
+      </c>
+      <c r="DW10">
+        <v>3.9398485023315402E-3</v>
+      </c>
+      <c r="DX10">
+        <v>3.9237112168197296E-3</v>
+      </c>
+      <c r="DY10">
+        <v>3.9077645603290499E-3</v>
+      </c>
+      <c r="DZ10">
+        <v>3.8920047964210798E-3</v>
+      </c>
+      <c r="EA10">
+        <v>3.87647734557968E-3</v>
+      </c>
+      <c r="EB10">
+        <v>3.86116711327963E-3</v>
+      </c>
+      <c r="EC10">
+        <v>3.84603106611995E-3</v>
+      </c>
+      <c r="ED10">
+        <v>3.83106591586275E-3</v>
+      </c>
+      <c r="EE10">
+        <v>3.8162684603624498E-3</v>
+      </c>
+      <c r="EF10">
+        <v>3.80163558069678E-3</v>
+      </c>
+      <c r="EG10">
+        <v>3.7871642384135502E-3</v>
+      </c>
+      <c r="EH10">
+        <v>3.7728514728875202E-3</v>
+      </c>
+      <c r="EI10">
+        <v>3.75869439878234E-3</v>
+      </c>
+      <c r="EJ10">
+        <v>3.7446902036126499E-3</v>
+      </c>
+      <c r="EK10">
+        <v>3.7308361454017102E-3</v>
+      </c>
+      <c r="EL10">
+        <v>3.7171295504301199E-3</v>
+      </c>
+      <c r="EM10">
+        <v>3.7035678110716101E-3</v>
+      </c>
+      <c r="EN10">
+        <v>3.6901483837118998E-3</v>
+      </c>
+      <c r="EO10">
+        <v>3.6768687867467999E-3</v>
+      </c>
+      <c r="EP10">
+        <v>3.66375654890218E-3</v>
+      </c>
+      <c r="EQ10">
+        <v>3.6508225460923499E-3</v>
+      </c>
+      <c r="ER10">
+        <v>3.6380197018984302E-3</v>
+      </c>
+      <c r="ES10">
+        <v>3.6253458062505402E-3</v>
+      </c>
+      <c r="ET10">
+        <v>3.6127987007717102E-3</v>
+      </c>
+      <c r="EU10">
+        <v>3.6003762772379298E-3</v>
+      </c>
+      <c r="EV10">
+        <v>3.5880764760936601E-3</v>
+      </c>
+      <c r="EW10">
+        <v>3.57589728502052E-3</v>
+      </c>
+      <c r="EX10">
+        <v>3.5638367375570102E-3</v>
+      </c>
+      <c r="EY10">
+        <v>3.5518929117669298E-3</v>
+      </c>
+      <c r="EZ10">
+        <v>3.5400639289548002E-3</v>
+      </c>
+      <c r="FA10">
+        <v>3.52834795242596E-3</v>
+      </c>
+      <c r="FB10">
+        <v>3.5167431862899098E-3</v>
+      </c>
+      <c r="FC10">
+        <v>3.5052478743048E-3</v>
+      </c>
+      <c r="FD10">
+        <v>3.4938602987616401E-3</v>
+      </c>
+      <c r="FE10">
+        <v>3.4825931374398598E-3</v>
+      </c>
+      <c r="FF10">
+        <v>3.4714789191398602E-3</v>
+      </c>
+      <c r="FG10">
+        <v>3.4604662772962798E-3</v>
+      </c>
+      <c r="FH10">
+        <v>3.44955366742859E-3</v>
+      </c>
+      <c r="FI10">
+        <v>3.438739577675E-3</v>
+      </c>
+      <c r="FJ10">
+        <v>3.4280225279145499E-3</v>
+      </c>
+      <c r="FK10">
+        <v>3.4174010689178701E-3</v>
+      </c>
+      <c r="FL10">
+        <v>3.4068737815253999E-3</v>
+      </c>
+      <c r="FM10">
+        <v>3.3964392758520701E-3</v>
+      </c>
+      <c r="FN10">
+        <v>3.38609619051755E-3</v>
+      </c>
+      <c r="FO10">
+        <v>3.3758431919009E-3</v>
+      </c>
+      <c r="FP10">
+        <v>3.3656789734189401E-3</v>
+      </c>
+      <c r="FQ10">
+        <v>3.35560225482727E-3</v>
+      </c>
+      <c r="FR10">
+        <v>3.34561178154321E-3</v>
+      </c>
+      <c r="FS10">
+        <v>3.3357063239898301E-3</v>
+      </c>
+      <c r="FT10">
+        <v>3.3258863047045E-3</v>
+      </c>
+      <c r="FU10">
+        <v>3.3162021274821601E-3</v>
+      </c>
+      <c r="FV10">
+        <v>3.30659844490106E-3</v>
+      </c>
+      <c r="FW10">
+        <v>3.2970741426526198E-3</v>
+      </c>
+      <c r="FX10">
+        <v>3.2876281278646099E-3</v>
+      </c>
+      <c r="FY10">
+        <v>3.2782593285755001E-3</v>
+      </c>
+      <c r="FZ10">
+        <v>3.2689666932243099E-3</v>
+      </c>
+      <c r="GA10">
+        <v>3.2597491901556401E-3</v>
+      </c>
+      <c r="GB10">
+        <v>3.2506058071391898E-3</v>
+      </c>
+      <c r="GC10">
+        <v>3.2415355509033601E-3</v>
+      </c>
+      <c r="GD10">
+        <v>3.2325374466823801E-3</v>
+      </c>
+      <c r="GE10">
+        <v>3.2236105377766102E-3</v>
+      </c>
+      <c r="GF10">
+        <v>3.2147538851254299E-3</v>
+      </c>
+      <c r="GG10">
+        <v>3.2059665668924199E-3</v>
+      </c>
+      <c r="GH10">
+        <v>3.19724767806235E-3</v>
+      </c>
+      <c r="GI10">
+        <v>3.1885963300495698E-3</v>
+      </c>
+      <c r="GJ10">
+        <v>3.1800512253663902E-3</v>
+      </c>
+      <c r="GK10">
+        <v>3.1715799479707599E-3</v>
+      </c>
+      <c r="GL10">
+        <v>3.16317286491806E-3</v>
+      </c>
+      <c r="GM10">
+        <v>3.15482916519882E-3</v>
+      </c>
+      <c r="GN10">
+        <v>3.1465480520482601E-3</v>
+      </c>
+      <c r="GO10">
+        <v>3.1383287426272801E-3</v>
+      </c>
+      <c r="GP10">
+        <v>3.13017046771201E-3</v>
+      </c>
+      <c r="GQ10">
+        <v>3.12207247139186E-3</v>
+      </c>
+      <c r="GR10">
+        <v>3.1140340107755999E-3</v>
+      </c>
+      <c r="GS10">
+        <v>3.1060543557053502E-3</v>
+      </c>
+      <c r="GT10">
+        <v>3.09813278847813E-3</v>
+      </c>
+      <c r="GU10">
+        <v>3.0902686035748799E-3</v>
+      </c>
+      <c r="GV10">
+        <v>3.0824611073965399E-3</v>
+      </c>
+      <c r="GW10">
+        <v>3.0747096180070701E-3</v>
+      </c>
+      <c r="GX10">
+        <v>3.0670134648832698E-3</v>
+      </c>
+      <c r="GY10">
+        <v>3.0593976868962102E-3</v>
+      </c>
+      <c r="GZ10">
+        <v>3.0518526913788499E-3</v>
+      </c>
+      <c r="HA10">
+        <v>3.0443604464182299E-3</v>
+      </c>
+      <c r="HB10">
+        <v>3.0369203366522601E-3</v>
+      </c>
+      <c r="HC10">
+        <v>3.0295317567015198E-3</v>
+      </c>
+      <c r="HD10">
+        <v>3.0221941109626698E-3</v>
+      </c>
+      <c r="HE10">
+        <v>3.0149068134071801E-3</v>
+      </c>
+      <c r="HF10">
+        <v>3.0076692873848999E-3</v>
+      </c>
+      <c r="HG10">
+        <v>3.0004809654327002E-3</v>
+      </c>
+      <c r="HH10">
+        <v>2.99334128908769E-3</v>
+      </c>
+      <c r="HI10">
+        <v>2.98624970870515E-3</v>
+      </c>
+      <c r="HJ10">
+        <v>2.9792056832808498E-3</v>
+      </c>
+      <c r="HK10">
+        <v>2.97220868027775E-3</v>
+      </c>
+      <c r="HL10">
+        <v>2.96525817545692E-3</v>
+      </c>
+      <c r="HM10">
+        <v>2.9583536527124799E-3</v>
+      </c>
+      <c r="HN10">
+        <v>2.9515087968195199E-3</v>
+      </c>
+      <c r="HO10">
+        <v>2.9447329010424701E-3</v>
+      </c>
+      <c r="HP10">
+        <v>2.93800095041525E-3</v>
+      </c>
+      <c r="HQ10">
+        <v>2.9313124690480098E-3</v>
+      </c>
+      <c r="HR10">
+        <v>2.9246669882187501E-3</v>
+      </c>
+      <c r="HS10">
+        <v>2.91806404623565E-3</v>
+      </c>
+      <c r="HT10">
+        <v>2.91150318830254E-3</v>
+      </c>
+      <c r="HU10">
+        <v>2.90498396638759E-3</v>
+      </c>
+      <c r="HV10">
+        <v>2.8985059390949299E-3</v>
+      </c>
+      <c r="HW10">
+        <v>2.8920686715392901E-3</v>
+      </c>
+      <c r="HX10">
+        <v>2.8856717352234501E-3</v>
+      </c>
+      <c r="HY10">
+        <v>2.8793147079185502E-3</v>
+      </c>
+      <c r="HZ10">
+        <v>2.8729971735470799E-3</v>
+      </c>
+      <c r="IA10">
+        <v>2.8667187220685199E-3</v>
+      </c>
+      <c r="IB10">
+        <v>2.8604789493675399E-3</v>
+      </c>
+      <c r="IC10">
+        <v>2.8542820311397098E-3</v>
+      </c>
+      <c r="ID10">
+        <v>2.8481530072931201E-3</v>
+      </c>
+      <c r="IE10">
+        <v>2.8420610305322702E-3</v>
+      </c>
+      <c r="IF10">
+        <v>2.8360057267034001E-3</v>
+      </c>
+      <c r="IG10">
+        <v>2.8299867269090001E-3</v>
+      </c>
+      <c r="IH10">
+        <v>2.8240036674136498E-3</v>
+      </c>
+      <c r="II10">
+        <v>2.8180561895519299E-3</v>
+      </c>
+      <c r="IJ10">
+        <v>2.81214393963826E-3</v>
+      </c>
+      <c r="IK10">
+        <v>2.8062665688787102E-3</v>
+      </c>
+      <c r="IL10">
+        <v>2.8004237332846802E-3</v>
+      </c>
+      <c r="IM10">
+        <v>2.7946150935884801E-3</v>
+      </c>
+      <c r="IN10">
+        <v>2.7888403151606601E-3</v>
+      </c>
+      <c r="IO10">
+        <v>2.7830990679290801E-3</v>
+      </c>
+      <c r="IP10">
+        <v>2.7773910262997299E-3</v>
+      </c>
+      <c r="IQ10">
+        <v>2.7717158690792501E-3</v>
+      </c>
+      <c r="IR10">
+        <v>2.7660732793989302E-3</v>
+      </c>
+      <c r="IS10">
+        <v>2.7604909318534598E-3</v>
+      </c>
+      <c r="IT10">
+        <v>2.75494367027934E-3</v>
+      </c>
+      <c r="IU10">
+        <v>2.7494276683551399E-3</v>
+      </c>
+      <c r="IV10">
+        <v>2.7439426315607001E-3</v>
+      </c>
+      <c r="IW10">
+        <v>2.7384882692329101E-3</v>
+      </c>
+      <c r="IX10">
+        <v>2.73306429449034E-3</v>
+      </c>
+      <c r="IY10">
+        <v>2.7276704241228199E-3</v>
+      </c>
+      <c r="IZ10">
+        <v>2.72230637832796E-3</v>
+      </c>
+      <c r="JA10">
+        <v>2.7169718797993101E-3</v>
+      </c>
+      <c r="JB10">
+        <v>2.7116666501166E-3</v>
+      </c>
+      <c r="JC10">
+        <v>2.7063903950531598E-3</v>
+      </c>
+      <c r="JD10">
+        <v>2.70114274490235E-3</v>
+      </c>
+      <c r="JE10">
+        <v>2.6959230143644001E-3</v>
+      </c>
+      <c r="JF10">
+        <v>2.6907292468827302E-3</v>
+      </c>
+      <c r="JG10">
+        <v>2.6855544534060199E-3</v>
+      </c>
+      <c r="JH10">
+        <v>2.6799702262999599E-3</v>
+      </c>
+      <c r="JI10">
+        <v>2.66879422183224E-3</v>
+      </c>
+      <c r="JJ10">
+        <v>2.6504547870294399E-3</v>
+      </c>
+      <c r="JK10">
+        <v>2.6237672657316701E-3</v>
+      </c>
+      <c r="JL10">
+        <v>2.5839862971670201E-3</v>
+      </c>
+      <c r="JM10">
+        <v>2.5129524888928101E-3</v>
+      </c>
+      <c r="JN10">
+        <v>2.3424794332575498E-3</v>
+      </c>
+      <c r="JO10">
+        <v>1.8186414453522099E-3</v>
+      </c>
+      <c r="JP10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1918" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -28788,8 +35334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
